--- a/topFoodBloggingVideos.xlsx
+++ b/topFoodBloggingVideos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Top Sports Videos" sheetId="1" r:id="rId1"/>
+    <sheet name="Top Food Blogging Videos" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -454,13 +454,13 @@
         <v>FULL CHICKEN ROAST | Whole Fried Chicken Recipe Cooking in village | Free Range Chicken Recipe</v>
       </c>
       <c r="C2" t="str">
-        <v>Unknown</v>
+        <v>Howto &amp; Style</v>
       </c>
       <c r="D2" t="str">
-        <v>143070599</v>
+        <v>143071794</v>
       </c>
       <c r="E2" t="str">
-        <v>1858692</v>
+        <v>1858694</v>
       </c>
       <c r="F2" t="str">
         <v>26864</v>
@@ -490,951 +490,951 @@
         <v>https://i.ytimg.com/vi/PVcAhAxQcgM/hqdefault.jpg</v>
       </c>
       <c r="O2" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Angry kachori wala😡😂😂❌❌#kachori #angrykachoriwala #kolkatafamousstreetfood #foodvlogger #comedy</v>
+        <v>Send this to Chaat Lover❤️ #streetfood #ytshorts #food #foodie #rajkachori #chaat</v>
       </c>
       <c r="C3" t="str">
-        <v>Unknown</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="D3" t="str">
-        <v>62287574</v>
+        <v>82774955</v>
       </c>
       <c r="E3" t="str">
-        <v>2637033</v>
+        <v>2619531</v>
       </c>
       <c r="F3" t="str">
-        <v>5732</v>
+        <v>5074</v>
       </c>
       <c r="G3" t="str">
-        <v>2024-02</v>
+        <v>2023-05</v>
       </c>
       <c r="H3">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I3" t="str">
-        <v>Chimkandi</v>
+        <v>Radhika Aggarwal</v>
       </c>
       <c r="J3" t="str">
-        <v>12500000</v>
+        <v>507000</v>
       </c>
       <c r="K3" t="str">
-        <v>438</v>
+        <v>1239</v>
       </c>
       <c r="L3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M3" t="str">
-        <v>https://www.youtube.com/watch?v=Ew5ntqCtv0o</v>
+        <v>https://www.youtube.com/watch?v=ztRThKPsmzE</v>
       </c>
       <c r="N3" t="str">
-        <v>https://i.ytimg.com/vi/Ew5ntqCtv0o/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/ztRThKPsmzE/hqdefault.jpg</v>
       </c>
       <c r="O3" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>What’s your favourite street food in Karachi? #foodshorts #foodstagram #food #frenchfries #cheesy</v>
+        <v>Angry kachori wala😡😂😂❌❌#kachori #angrykachoriwala #kolkatafamousstreetfood #foodvlogger #comedy</v>
       </c>
       <c r="C4" t="str">
-        <v>People &amp; Blogs</v>
+        <v>Comedy</v>
       </c>
       <c r="D4" t="str">
-        <v>59622477</v>
+        <v>62290638</v>
       </c>
       <c r="E4" t="str">
-        <v>2287945</v>
+        <v>2637076</v>
       </c>
       <c r="F4" t="str">
-        <v>3306</v>
+        <v>5733</v>
       </c>
       <c r="G4" t="str">
-        <v>2023-04</v>
+        <v>2024-02</v>
       </c>
       <c r="H4">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I4" t="str">
-        <v>Anas Faisal</v>
+        <v>Chimkandi</v>
       </c>
       <c r="J4" t="str">
-        <v>703000</v>
+        <v>12500000</v>
       </c>
       <c r="K4" t="str">
-        <v>264</v>
+        <v>438</v>
       </c>
       <c r="L4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M4" t="str">
-        <v>https://www.youtube.com/watch?v=BvwCmfuCzSc</v>
+        <v>https://www.youtube.com/watch?v=Ew5ntqCtv0o</v>
       </c>
       <c r="N4" t="str">
-        <v>https://i.ytimg.com/vi/BvwCmfuCzSc/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/Ew5ntqCtv0o/hqdefault.jpg</v>
       </c>
       <c r="O4" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Hyderabad Delicious Unlimited Non-Veg Platter food of heaven #shorts #streetfood</v>
+        <v>What’s your favourite street food in Karachi? #foodshorts #foodstagram #food #frenchfries #cheesy</v>
       </c>
       <c r="C5" t="str">
         <v>People &amp; Blogs</v>
       </c>
       <c r="D5" t="str">
-        <v>57924573</v>
+        <v>59622834</v>
       </c>
       <c r="E5" t="str">
-        <v>1451627</v>
+        <v>2287953</v>
       </c>
       <c r="F5" t="str">
-        <v>2815</v>
+        <v>3306</v>
       </c>
       <c r="G5" t="str">
-        <v>2023-05</v>
+        <v>2023-04</v>
       </c>
       <c r="H5">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I5" t="str">
-        <v>SocialPost Foodie</v>
+        <v>Anas Faisal</v>
       </c>
       <c r="J5" t="str">
-        <v>246000</v>
+        <v>703000</v>
       </c>
       <c r="K5" t="str">
-        <v>134</v>
+        <v>264</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M5" t="str">
-        <v>https://www.youtube.com/watch?v=XA-zmHCMReQ</v>
+        <v>https://www.youtube.com/watch?v=BvwCmfuCzSc</v>
       </c>
       <c r="N5" t="str">
-        <v>https://i.ytimg.com/vi/XA-zmHCMReQ/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/BvwCmfuCzSc/hqdefault.jpg</v>
       </c>
       <c r="O5" t="str">
-        <v>IN</v>
+        <v>Pakistan</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Mumbai Cheese Suitcase Sandwich | Indian Street Food |  #shorts #youtubeshorts #short</v>
+        <v>Hyderabad Delicious Unlimited Non-Veg Platter food of heaven #shorts #streetfood</v>
       </c>
       <c r="C6" t="str">
         <v>People &amp; Blogs</v>
       </c>
       <c r="D6" t="str">
-        <v>56703502</v>
+        <v>57926568</v>
       </c>
       <c r="E6" t="str">
-        <v>2698714</v>
+        <v>1451644</v>
       </c>
       <c r="F6" t="str">
-        <v>10887</v>
+        <v>2815</v>
       </c>
       <c r="G6" t="str">
-        <v>2023-04</v>
+        <v>2023-05</v>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I6" t="str">
-        <v xml:space="preserve">Tiger Vlogs </v>
+        <v>SocialPost Foodie</v>
       </c>
       <c r="J6" t="str">
-        <v>788000</v>
+        <v>246000</v>
       </c>
       <c r="K6" t="str">
-        <v>631</v>
+        <v>134</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M6" t="str">
-        <v>https://www.youtube.com/watch?v=y3zLcCOnUzo</v>
+        <v>https://www.youtube.com/watch?v=XA-zmHCMReQ</v>
       </c>
       <c r="N6" t="str">
-        <v>https://i.ytimg.com/vi/y3zLcCOnUzo/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/XA-zmHCMReQ/hqdefault.jpg</v>
       </c>
       <c r="O6" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>What I ate at a Muslim Wedding Reception 😍 #shorts #garimasgoodlife</v>
+        <v>Mumbai Cheese Suitcase Sandwich | Indian Street Food |  #shorts #youtubeshorts #short</v>
       </c>
       <c r="C7" t="str">
         <v>People &amp; Blogs</v>
       </c>
       <c r="D7" t="str">
-        <v>54002438</v>
+        <v>56705195</v>
       </c>
       <c r="E7" t="str">
-        <v>2421660</v>
+        <v>2698740</v>
       </c>
       <c r="F7" t="str">
-        <v>7830</v>
+        <v>10887</v>
       </c>
       <c r="G7" t="str">
-        <v>2023-01</v>
+        <v>2023-04</v>
       </c>
       <c r="H7">
         <v>60</v>
       </c>
       <c r="I7" t="str">
-        <v>Garima's Good Life</v>
+        <v xml:space="preserve">Tiger Vlogs </v>
       </c>
       <c r="J7" t="str">
-        <v>4600000</v>
+        <v>788000</v>
       </c>
       <c r="K7" t="str">
-        <v>1130</v>
+        <v>631</v>
       </c>
       <c r="L7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M7" t="str">
-        <v>https://www.youtube.com/watch?v=iGBFXlIrz-Y</v>
+        <v>https://www.youtube.com/watch?v=y3zLcCOnUzo</v>
       </c>
       <c r="N7" t="str">
-        <v>https://i.ytimg.com/vi/iGBFXlIrz-Y/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/y3zLcCOnUzo/hqdefault.jpg</v>
       </c>
       <c r="O7" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Atyachar on Vegetarians*💀😂 | Raj Grover | #shorts</v>
+        <v>What I ate at a Muslim Wedding Reception 😍 #shorts #garimasgoodlife</v>
       </c>
       <c r="C8" t="str">
-        <v>Unknown</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="D8" t="str">
-        <v>53367619</v>
+        <v>54003859</v>
       </c>
       <c r="E8" t="str">
-        <v>2945893</v>
+        <v>2421671</v>
       </c>
       <c r="F8" t="str">
-        <v>4244</v>
+        <v>7830</v>
       </c>
       <c r="G8" t="str">
-        <v>2023-06</v>
+        <v>2023-01</v>
       </c>
       <c r="H8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8" t="str">
-        <v>Raj Grover</v>
+        <v>Garima's Good Life</v>
       </c>
       <c r="J8" t="str">
-        <v>13400000</v>
+        <v>4600000</v>
       </c>
       <c r="K8" t="str">
-        <v>612</v>
+        <v>1130</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M8" t="str">
-        <v>https://www.youtube.com/watch?v=Icu0D1TA97c</v>
+        <v>https://www.youtube.com/watch?v=iGBFXlIrz-Y</v>
       </c>
       <c r="N8" t="str">
-        <v>https://i.ytimg.com/vi/Icu0D1TA97c/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/iGBFXlIrz-Y/hqdefault.jpg</v>
       </c>
       <c r="O8" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>ASMR MUKBANG 직접 만든 양념 치킨먹방! 스테이크 짜파게티 레시피 &amp; 먹방 FRIED CHICKEN AND BLACK BEAN NOODLES EATING SOUND!</v>
+        <v>Atyachar on Vegetarians*💀😂 | Raj Grover | #shorts</v>
       </c>
       <c r="C9" t="str">
+        <v>Entertainment</v>
+      </c>
+      <c r="D9" t="str">
+        <v>53370627</v>
+      </c>
+      <c r="E9" t="str">
+        <v>2945950</v>
+      </c>
+      <c r="F9" t="str">
+        <v>4244</v>
+      </c>
+      <c r="G9" t="str">
+        <v>2023-06</v>
+      </c>
+      <c r="H9">
+        <v>61</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Raj Grover</v>
+      </c>
+      <c r="J9" t="str">
+        <v>13400000</v>
+      </c>
+      <c r="K9" t="str">
+        <v>612</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9" t="str">
+        <v>https://www.youtube.com/watch?v=Icu0D1TA97c</v>
+      </c>
+      <c r="N9" t="str">
+        <v>https://i.ytimg.com/vi/Icu0D1TA97c/hqdefault.jpg</v>
+      </c>
+      <c r="O9" t="str">
         <v>Unknown</v>
-      </c>
-      <c r="D9" t="str">
-        <v>50925969</v>
-      </c>
-      <c r="E9" t="str">
-        <v>564981</v>
-      </c>
-      <c r="F9" t="str">
-        <v>6977</v>
-      </c>
-      <c r="G9" t="str">
-        <v>2022-05</v>
-      </c>
-      <c r="H9">
-        <v>903</v>
-      </c>
-      <c r="I9" t="str">
-        <v>GONGSAM TABLE 이공삼</v>
-      </c>
-      <c r="J9" t="str">
-        <v>12900000</v>
-      </c>
-      <c r="K9" t="str">
-        <v>1040</v>
-      </c>
-      <c r="L9">
-        <v>6</v>
-      </c>
-      <c r="M9" t="str">
-        <v>https://www.youtube.com/watch?v=vXp3IzESmnw</v>
-      </c>
-      <c r="N9" t="str">
-        <v>https://i.ytimg.com/vi/vXp3IzESmnw/hqdefault.jpg</v>
-      </c>
-      <c r="O9" t="str">
-        <v>IN</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>INDIAN FOOD MAGIC | CARRYMINATI</v>
+        <v>ASMR MUKBANG 직접 만든 양념 치킨먹방! 스테이크 짜파게티 레시피 &amp; 먹방 FRIED CHICKEN AND BLACK BEAN NOODLES EATING SOUND!</v>
       </c>
       <c r="C10" t="str">
-        <v>Unknown</v>
+        <v>Entertainment</v>
       </c>
       <c r="D10" t="str">
-        <v>48469685</v>
+        <v>50926701</v>
       </c>
       <c r="E10" t="str">
-        <v>5894643</v>
+        <v>564984</v>
       </c>
       <c r="F10" t="str">
-        <v>148490</v>
+        <v>6977</v>
       </c>
       <c r="G10" t="str">
-        <v>2022-04</v>
+        <v>2022-05</v>
       </c>
       <c r="H10">
-        <v>486</v>
+        <v>903</v>
       </c>
       <c r="I10" t="str">
-        <v>CarryMinati</v>
+        <v>GONGSAM TABLE 이공삼</v>
       </c>
       <c r="J10" t="str">
-        <v>43100000</v>
+        <v>12900000</v>
       </c>
       <c r="K10" t="str">
-        <v>199</v>
+        <v>1040</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M10" t="str">
-        <v>https://www.youtube.com/watch?v=-LIMVVfRp6Q</v>
+        <v>https://www.youtube.com/watch?v=vXp3IzESmnw</v>
       </c>
       <c r="N10" t="str">
-        <v>https://i.ytimg.com/vi/-LIMVVfRp6Q/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/vXp3IzESmnw/hqdefault.jpg</v>
       </c>
       <c r="O10" t="str">
-        <v>IN</v>
+        <v>Korea, Republic of</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>BIRYANI | QUAIL BIRYANI Made with 200 Quail | Marriage Biryani Cooking In Village | Biryani Recipe</v>
+        <v>INDIAN FOOD MAGIC | CARRYMINATI</v>
       </c>
       <c r="C11" t="str">
-        <v>Unknown</v>
+        <v>Comedy</v>
       </c>
       <c r="D11" t="str">
-        <v>47633841</v>
+        <v>48470067</v>
       </c>
       <c r="E11" t="str">
-        <v>705121</v>
+        <v>5894645</v>
       </c>
       <c r="F11" t="str">
-        <v>8602</v>
+        <v>148490</v>
       </c>
       <c r="G11" t="str">
-        <v>2020-10</v>
+        <v>2022-04</v>
       </c>
       <c r="H11">
-        <v>689</v>
+        <v>486</v>
       </c>
       <c r="I11" t="str">
-        <v>Village Cooking Channel</v>
+        <v>CarryMinati</v>
       </c>
       <c r="J11" t="str">
-        <v>25700000</v>
+        <v>43100000</v>
       </c>
       <c r="K11" t="str">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="L11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M11" t="str">
-        <v>https://www.youtube.com/watch?v=7GCB6bT0Nc8</v>
+        <v>https://www.youtube.com/watch?v=-LIMVVfRp6Q</v>
       </c>
       <c r="N11" t="str">
-        <v>https://i.ytimg.com/vi/7GCB6bT0Nc8/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/-LIMVVfRp6Q/hqdefault.jpg</v>
       </c>
       <c r="O11" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>SPICY MUTTON CURRY 🌶 SPICY CHICKEN CURRY AND SPICY EGG CURRY WITH CHICKEN AND VEGETABLE FRIED RICE</v>
+        <v>BIRYANI | QUAIL BIRYANI Made with 200 Quail | Marriage Biryani Cooking In Village | Biryani Recipe</v>
       </c>
       <c r="C12" t="str">
-        <v>People &amp; Blogs</v>
+        <v>Howto &amp; Style</v>
       </c>
       <c r="D12" t="str">
-        <v>46961112</v>
+        <v>47634615</v>
       </c>
       <c r="E12" t="str">
-        <v>449071</v>
+        <v>705122</v>
       </c>
       <c r="F12" t="str">
-        <v>12032</v>
+        <v>8602</v>
       </c>
       <c r="G12" t="str">
-        <v>2022-09</v>
+        <v>2020-10</v>
       </c>
       <c r="H12">
-        <v>735</v>
+        <v>689</v>
       </c>
       <c r="I12" t="str">
-        <v>MaddyEats</v>
+        <v>Village Cooking Channel</v>
       </c>
       <c r="J12" t="str">
-        <v>5270000</v>
+        <v>25700000</v>
       </c>
       <c r="K12" t="str">
-        <v>530</v>
+        <v>227</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M12" t="str">
-        <v>https://www.youtube.com/watch?v=UhBtpOrO6ls</v>
+        <v>https://www.youtube.com/watch?v=7GCB6bT0Nc8</v>
       </c>
       <c r="N12" t="str">
-        <v>https://i.ytimg.com/vi/UhBtpOrO6ls/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/7GCB6bT0Nc8/hqdefault.jpg</v>
       </c>
       <c r="O12" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>I VISIT ABHISHEK BACCHAN'S FOOD PLACE! 🍔😍 #shorts #vlog</v>
+        <v>SPICY MUTTON CURRY 🌶 SPICY CHICKEN CURRY AND SPICY EGG CURRY WITH CHICKEN AND VEGETABLE FRIED RICE</v>
       </c>
       <c r="C13" t="str">
-        <v>Unknown</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="D13" t="str">
-        <v>43207323</v>
+        <v>46962108</v>
       </c>
       <c r="E13" t="str">
-        <v>2957933</v>
+        <v>449073</v>
       </c>
       <c r="F13" t="str">
-        <v>3622</v>
+        <v>12032</v>
       </c>
       <c r="G13" t="str">
-        <v>2022-04</v>
+        <v>2022-09</v>
       </c>
       <c r="H13">
-        <v>58</v>
+        <v>735</v>
       </c>
       <c r="I13" t="str">
-        <v>Thugesh Shorts</v>
+        <v>MaddyEats</v>
       </c>
       <c r="J13" t="str">
-        <v>3770000</v>
+        <v>5270000</v>
       </c>
       <c r="K13" t="str">
-        <v>468</v>
+        <v>530</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M13" t="str">
-        <v>https://www.youtube.com/watch?v=0WTsyeAT7fg</v>
+        <v>https://www.youtube.com/watch?v=UhBtpOrO6ls</v>
       </c>
       <c r="N13" t="str">
-        <v>https://i.ytimg.com/vi/0WTsyeAT7fg/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/UhBtpOrO6ls/hqdefault.jpg</v>
       </c>
       <c r="O13" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Maggi Will Never Be The Same Again</v>
+        <v>RARE INDIAN STREET FOOD....YUMMYY🤤| CARRYMINATI</v>
       </c>
       <c r="C14" t="str">
-        <v>Unknown</v>
+        <v>Comedy</v>
       </c>
       <c r="D14" t="str">
-        <v>39926865</v>
+        <v>46246655</v>
       </c>
       <c r="E14" t="str">
-        <v>1035223</v>
+        <v>4158326</v>
       </c>
       <c r="F14" t="str">
-        <v>24143</v>
+        <v>102295</v>
       </c>
       <c r="G14" t="str">
-        <v>2019-10</v>
+        <v>2023-12</v>
       </c>
       <c r="H14">
-        <v>421</v>
+        <v>499</v>
       </c>
       <c r="I14" t="str">
-        <v>Slayy Point</v>
+        <v>CarryMinati</v>
       </c>
       <c r="J14" t="str">
-        <v>8830000</v>
+        <v>43100000</v>
       </c>
       <c r="K14" t="str">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M14" t="str">
-        <v>https://www.youtube.com/watch?v=eBlK58wf-0A</v>
+        <v>https://www.youtube.com/watch?v=vcLRWiTNCbQ</v>
       </c>
       <c r="N14" t="str">
-        <v>https://i.ytimg.com/vi/eBlK58wf-0A/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/vcLRWiTNCbQ/hqdefault.jpg</v>
       </c>
       <c r="O14" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Street Food in Peshawar - GOLDEN PULAO Mountain + Charsi Tikka Kabab + Pakistani Street Food Tour!</v>
+        <v>I VISIT ABHISHEK BACCHAN'S FOOD PLACE! 🍔😍 #shorts #vlog</v>
       </c>
       <c r="C15" t="str">
-        <v>Unknown</v>
+        <v>Entertainment</v>
       </c>
       <c r="D15" t="str">
-        <v>39027703</v>
+        <v>43207464</v>
       </c>
       <c r="E15" t="str">
-        <v>502424</v>
+        <v>2957935</v>
       </c>
       <c r="F15" t="str">
-        <v>40428</v>
+        <v>3622</v>
       </c>
       <c r="G15" t="str">
-        <v>2019-04</v>
+        <v>2022-04</v>
       </c>
       <c r="H15">
-        <v>1199</v>
+        <v>58</v>
       </c>
       <c r="I15" t="str">
-        <v>The Food Ranger</v>
+        <v>Thugesh Shorts</v>
       </c>
       <c r="J15" t="str">
-        <v>5930000</v>
+        <v>3770000</v>
       </c>
       <c r="K15" t="str">
-        <v>400</v>
+        <v>468</v>
       </c>
       <c r="L15">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="M15" t="str">
-        <v>https://www.youtube.com/watch?v=NQDom2gxiVc</v>
+        <v>https://www.youtube.com/watch?v=0WTsyeAT7fg</v>
       </c>
       <c r="N15" t="str">
-        <v>https://i.ytimg.com/vi/NQDom2gxiVc/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/0WTsyeAT7fg/hqdefault.jpg</v>
       </c>
       <c r="O15" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Only Green Colour Food খেলাম সারাদিন! 🟢 #shorts #vlog</v>
+        <v>Maggi Will Never Be The Same Again</v>
       </c>
       <c r="C16" t="str">
-        <v>Unknown</v>
+        <v>Comedy</v>
       </c>
       <c r="D16" t="str">
-        <v>38158290</v>
+        <v>39927168</v>
       </c>
       <c r="E16" t="str">
-        <v>1436342</v>
+        <v>1035224</v>
       </c>
       <c r="F16" t="str">
-        <v>16588</v>
+        <v>24143</v>
       </c>
       <c r="G16" t="str">
-        <v>2023-05</v>
+        <v>2019-10</v>
       </c>
       <c r="H16">
-        <v>60</v>
+        <v>421</v>
       </c>
       <c r="I16" t="str">
-        <v>Desi pola</v>
+        <v>Slayy Point</v>
       </c>
       <c r="J16" t="str">
-        <v>5610000</v>
+        <v>8830000</v>
       </c>
       <c r="K16" t="str">
-        <v>456</v>
+        <v>178</v>
       </c>
       <c r="L16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M16" t="str">
-        <v>https://www.youtube.com/watch?v=uQmD4X17hWo</v>
+        <v>https://www.youtube.com/watch?v=eBlK58wf-0A</v>
       </c>
       <c r="N16" t="str">
-        <v>https://i.ytimg.com/vi/uQmD4X17hWo/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/eBlK58wf-0A/hqdefault.jpg</v>
       </c>
       <c r="O16" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Khasta Kachori Chaat | Indian Street Food #shorts #short</v>
+        <v>Street Food in Peshawar - GOLDEN PULAO Mountain + Charsi Tikka Kabab + Pakistani Street Food Tour!</v>
       </c>
       <c r="C17" t="str">
-        <v>People &amp; Blogs</v>
+        <v>Travel &amp; Events</v>
       </c>
       <c r="D17" t="str">
-        <v>37473401</v>
+        <v>39028030</v>
+      </c>
+      <c r="E17" t="str">
+        <v>502426</v>
       </c>
       <c r="F17" t="str">
-        <v>3311</v>
+        <v>40428</v>
       </c>
       <c r="G17" t="str">
-        <v>2022-07</v>
+        <v>2019-04</v>
       </c>
       <c r="H17">
-        <v>58</v>
+        <v>1199</v>
       </c>
       <c r="I17" t="str">
-        <v>Bhukkad Official</v>
+        <v>The Food Ranger</v>
       </c>
       <c r="J17" t="str">
-        <v>587000</v>
+        <v>5930000</v>
       </c>
       <c r="K17" t="str">
-        <v>1501</v>
+        <v>400</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M17" t="str">
-        <v>https://www.youtube.com/watch?v=GWWfRIur4mM</v>
+        <v>https://www.youtube.com/watch?v=NQDom2gxiVc</v>
       </c>
       <c r="N17" t="str">
-        <v>https://i.ytimg.com/vi/GWWfRIur4mM/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/NQDom2gxiVc/hqdefault.jpg</v>
       </c>
       <c r="O17" t="str">
-        <v>IN</v>
+        <v>United Arab Emirates</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>1 BURJ KHALIFA BURGER खाओ 😳😳 5100 /- CASH ले जाओ 🤑🤑 #shorts</v>
+        <v>Only Green Colour Food খেলাম সারাদিন! 🟢 #shorts #vlog</v>
       </c>
       <c r="C18" t="str">
-        <v>People &amp; Blogs</v>
+        <v>Comedy</v>
       </c>
       <c r="D18" t="str">
-        <v>34568114</v>
+        <v>38159252</v>
       </c>
       <c r="E18" t="str">
-        <v>2835523</v>
+        <v>1436345</v>
       </c>
       <c r="F18" t="str">
-        <v>3008</v>
+        <v>16588</v>
       </c>
       <c r="G18" t="str">
-        <v>2022-04</v>
+        <v>2023-05</v>
       </c>
       <c r="H18">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I18" t="str">
-        <v>ARE YOU HUNGRY</v>
+        <v>Desi pola</v>
       </c>
       <c r="J18" t="str">
-        <v>8340000</v>
+        <v>5610000</v>
       </c>
       <c r="K18" t="str">
-        <v>1295</v>
+        <v>456</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M18" t="str">
-        <v>https://www.youtube.com/watch?v=InDH4hNzeIw</v>
+        <v>https://www.youtube.com/watch?v=uQmD4X17hWo</v>
       </c>
       <c r="N18" t="str">
-        <v>https://i.ytimg.com/vi/InDH4hNzeIw/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/uQmD4X17hWo/hqdefault.jpg</v>
       </c>
       <c r="O18" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Bangalore Anna Selling Boiled Egg Chilli Fried Rice Combo Rs. 60/- Only #bangalorefood #shorts</v>
+        <v>Khasta Kachori Chaat | Indian Street Food #shorts #short</v>
       </c>
       <c r="C19" t="str">
-        <v>Unknown</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="D19" t="str">
-        <v>33613387</v>
-      </c>
-      <c r="E19" t="str">
-        <v>1344291</v>
+        <v>37474947</v>
       </c>
       <c r="F19" t="str">
-        <v>1429</v>
+        <v>3311</v>
       </c>
       <c r="G19" t="str">
-        <v>2023-06</v>
+        <v>2022-07</v>
       </c>
       <c r="H19">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I19" t="str">
-        <v>INDIA EAT MANIA</v>
+        <v>Bhukkad Official</v>
       </c>
       <c r="J19" t="str">
-        <v>7640000</v>
+        <v>587000</v>
       </c>
       <c r="K19" t="str">
-        <v>2436</v>
+        <v>1501</v>
       </c>
       <c r="L19">
         <v>5</v>
       </c>
       <c r="M19" t="str">
-        <v>https://www.youtube.com/watch?v=aWDXR6iL8qk</v>
+        <v>https://www.youtube.com/watch?v=GWWfRIur4mM</v>
       </c>
       <c r="N19" t="str">
-        <v>https://i.ytimg.com/vi/aWDXR6iL8qk/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/GWWfRIur4mM/hqdefault.jpg</v>
       </c>
       <c r="O19" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>SPICY MUTTON CURRY 🔥 SPICY CHICKEN CURRY 🍗 SPICY MUTTON KALEJI CURRY AND SPICY EGG CURRY WITH RICE</v>
+        <v>1 BURJ KHALIFA BURGER खाओ 😳😳 5100 /- CASH ले जाओ 🤑🤑 #shorts</v>
       </c>
       <c r="C20" t="str">
         <v>People &amp; Blogs</v>
       </c>
       <c r="D20" t="str">
-        <v>33124550</v>
+        <v>34568145</v>
       </c>
       <c r="E20" t="str">
-        <v>383706</v>
+        <v>2835523</v>
       </c>
       <c r="F20" t="str">
-        <v>11163</v>
+        <v>3008</v>
       </c>
       <c r="G20" t="str">
-        <v>2022-08</v>
+        <v>2022-04</v>
       </c>
       <c r="H20">
-        <v>749</v>
+        <v>57</v>
       </c>
       <c r="I20" t="str">
-        <v>MaddyEats</v>
+        <v>ARE YOU HUNGRY</v>
       </c>
       <c r="J20" t="str">
-        <v>5270000</v>
+        <v>8340000</v>
       </c>
       <c r="K20" t="str">
-        <v>530</v>
+        <v>1295</v>
       </c>
       <c r="L20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M20" t="str">
-        <v>https://www.youtube.com/watch?v=jdPJhs-qk9k</v>
+        <v>https://www.youtube.com/watch?v=InDH4hNzeIw</v>
       </c>
       <c r="N20" t="str">
-        <v>https://i.ytimg.com/vi/jdPJhs-qk9k/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/InDH4hNzeIw/hqdefault.jpg</v>
       </c>
       <c r="O20" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Rohit Sharma🍔#food #foodie #streetfood #rohitsharma #vadapav #mumbaifood #foodvlog #indianfood #new</v>
+        <v>Bangalore Anna Selling Boiled Egg Chilli Fried Rice Combo Rs. 60/- Only #bangalorefood #shorts</v>
       </c>
       <c r="C21" t="str">
-        <v>Unknown</v>
+        <v>Entertainment</v>
       </c>
       <c r="D21" t="str">
-        <v>32652203</v>
+        <v>33614661</v>
       </c>
       <c r="E21" t="str">
-        <v>1578248</v>
+        <v>1344310</v>
       </c>
       <c r="F21" t="str">
-        <v>5185</v>
+        <v>1429</v>
       </c>
       <c r="G21" t="str">
-        <v>2023-08</v>
+        <v>2023-06</v>
       </c>
       <c r="H21">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I21" t="str">
-        <v xml:space="preserve">Proud Opinions </v>
+        <v>INDIA EAT MANIA</v>
       </c>
       <c r="J21" t="str">
-        <v>2510000</v>
+        <v>7640000</v>
       </c>
       <c r="K21" t="str">
-        <v>260</v>
+        <v>2436</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M21" t="str">
-        <v>https://www.youtube.com/watch?v=td2_kA4sByo</v>
+        <v>https://www.youtube.com/watch?v=aWDXR6iL8qk</v>
       </c>
       <c r="N21" t="str">
-        <v>https://i.ytimg.com/vi/td2_kA4sByo/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/aWDXR6iL8qk/hqdefault.jpg</v>
       </c>
       <c r="O21" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>The End Of Indian Street Food</v>
+        <v>SPICY MUTTON CURRY 🔥 SPICY CHICKEN CURRY 🍗 SPICY MUTTON KALEJI CURRY AND SPICY EGG CURRY WITH RICE</v>
       </c>
       <c r="C22" t="str">
-        <v>Unknown</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="D22" t="str">
-        <v>32149342</v>
+        <v>33127128</v>
       </c>
       <c r="E22" t="str">
-        <v>1238238</v>
+        <v>383711</v>
       </c>
       <c r="F22" t="str">
-        <v>55093</v>
+        <v>11163</v>
       </c>
       <c r="G22" t="str">
-        <v>2021-11</v>
+        <v>2022-08</v>
       </c>
       <c r="H22">
-        <v>899</v>
+        <v>749</v>
       </c>
       <c r="I22" t="str">
-        <v>Slayy Point</v>
+        <v>MaddyEats</v>
       </c>
       <c r="J22" t="str">
-        <v>8830000</v>
+        <v>5270000</v>
       </c>
       <c r="K22" t="str">
-        <v>178</v>
+        <v>530</v>
       </c>
       <c r="L22">
         <v>8</v>
       </c>
       <c r="M22" t="str">
-        <v>https://www.youtube.com/watch?v=CAx-KbeFPwQ</v>
+        <v>https://www.youtube.com/watch?v=jdPJhs-qk9k</v>
       </c>
       <c r="N22" t="str">
-        <v>https://i.ytimg.com/vi/CAx-KbeFPwQ/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/jdPJhs-qk9k/hqdefault.jpg</v>
       </c>
       <c r="O22" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>RED COLOUR FOOD খেলাম সারাদিন ❤️😍 #shorts #vlog</v>
+        <v>Rohit Sharma🍔#food #foodie #streetfood #rohitsharma #vadapav #mumbaifood #foodvlog #indianfood #new</v>
       </c>
       <c r="C23" t="str">
+        <v>Entertainment</v>
+      </c>
+      <c r="D23" t="str">
+        <v>32654117</v>
+      </c>
+      <c r="E23" t="str">
+        <v>1578267</v>
+      </c>
+      <c r="F23" t="str">
+        <v>5185</v>
+      </c>
+      <c r="G23" t="str">
+        <v>2023-08</v>
+      </c>
+      <c r="H23">
+        <v>60</v>
+      </c>
+      <c r="I23" t="str">
+        <v xml:space="preserve">Proud Opinions </v>
+      </c>
+      <c r="J23" t="str">
+        <v>2510000</v>
+      </c>
+      <c r="K23" t="str">
+        <v>260</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23" t="str">
+        <v>https://www.youtube.com/watch?v=td2_kA4sByo</v>
+      </c>
+      <c r="N23" t="str">
+        <v>https://i.ytimg.com/vi/td2_kA4sByo/hqdefault.jpg</v>
+      </c>
+      <c r="O23" t="str">
         <v>Unknown</v>
-      </c>
-      <c r="D23" t="str">
-        <v>30660947</v>
-      </c>
-      <c r="E23" t="str">
-        <v>1085882</v>
-      </c>
-      <c r="F23" t="str">
-        <v>4961</v>
-      </c>
-      <c r="G23" t="str">
-        <v>2023-03</v>
-      </c>
-      <c r="H23">
-        <v>56</v>
-      </c>
-      <c r="I23" t="str">
-        <v>Desi pola</v>
-      </c>
-      <c r="J23" t="str">
-        <v>5610000</v>
-      </c>
-      <c r="K23" t="str">
-        <v>456</v>
-      </c>
-      <c r="L23">
-        <v>6</v>
-      </c>
-      <c r="M23" t="str">
-        <v>https://www.youtube.com/watch?v=9ZmbgRadyrE</v>
-      </c>
-      <c r="N23" t="str">
-        <v>https://i.ytimg.com/vi/9ZmbgRadyrE/hqdefault.jpg</v>
-      </c>
-      <c r="O23" t="str">
-        <v>IN</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Internet Destroys Indian Food</v>
+        <v>The End Of Indian Street Food</v>
       </c>
       <c r="C24" t="str">
-        <v>Unknown</v>
+        <v>Comedy</v>
       </c>
       <c r="D24" t="str">
-        <v>30527633</v>
+        <v>32149977</v>
       </c>
       <c r="E24" t="str">
-        <v>1156709</v>
+        <v>1238240</v>
       </c>
       <c r="F24" t="str">
-        <v>46567</v>
+        <v>55093</v>
       </c>
       <c r="G24" t="str">
-        <v>2021-07</v>
+        <v>2021-11</v>
       </c>
       <c r="H24">
-        <v>784</v>
+        <v>899</v>
       </c>
       <c r="I24" t="str">
         <v>Slayy Point</v>
@@ -1449,1268 +1449,1268 @@
         <v>8</v>
       </c>
       <c r="M24" t="str">
-        <v>https://www.youtube.com/watch?v=8nomGzgzWaA</v>
+        <v>https://www.youtube.com/watch?v=CAx-KbeFPwQ</v>
       </c>
       <c r="N24" t="str">
-        <v>https://i.ytimg.com/vi/8nomGzgzWaA/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/CAx-KbeFPwQ/hqdefault.jpg</v>
       </c>
       <c r="O24" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Cheapest Mix Momo Platter Of📍 Pitampura, Delhi !! #shorts</v>
+        <v>RED COLOUR FOOD খেলাম সারাদিন ❤️😍 #shorts #vlog</v>
       </c>
       <c r="C25" t="str">
-        <v>People &amp; Blogs</v>
+        <v>Comedy</v>
       </c>
       <c r="D25" t="str">
-        <v>30295946</v>
+        <v>30661452</v>
       </c>
       <c r="E25" t="str">
-        <v>1369252</v>
+        <v>1085885</v>
       </c>
       <c r="F25" t="str">
-        <v>3213</v>
+        <v>4961</v>
       </c>
       <c r="G25" t="str">
         <v>2023-03</v>
       </c>
       <c r="H25">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I25" t="str">
-        <v>Nik's Kitchen</v>
+        <v>Desi pola</v>
       </c>
       <c r="J25" t="str">
-        <v>3800000</v>
+        <v>5610000</v>
       </c>
       <c r="K25" t="str">
-        <v>800</v>
+        <v>456</v>
       </c>
       <c r="L25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M25" t="str">
-        <v>https://www.youtube.com/watch?v=FVrNyXktmps</v>
+        <v>https://www.youtube.com/watch?v=9ZmbgRadyrE</v>
       </c>
       <c r="N25" t="str">
-        <v>https://i.ytimg.com/vi/FVrNyXktmps/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/9ZmbgRadyrE/hqdefault.jpg</v>
       </c>
       <c r="O25" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Appam - Made Traditionally || With Two Side Dishes Cooking In Village House || The Traditional Life</v>
+        <v>Internet Destroys Indian Food</v>
       </c>
       <c r="C26" t="str">
-        <v>Unknown</v>
+        <v>Comedy</v>
       </c>
       <c r="D26" t="str">
-        <v>30174651</v>
+        <v>30527921</v>
       </c>
       <c r="E26" t="str">
-        <v>241699</v>
+        <v>1156710</v>
       </c>
       <c r="F26" t="str">
-        <v>7939</v>
+        <v>46567</v>
       </c>
       <c r="G26" t="str">
-        <v>2022-04</v>
+        <v>2021-07</v>
       </c>
       <c r="H26">
-        <v>767</v>
+        <v>784</v>
       </c>
       <c r="I26" t="str">
-        <v>The Traditional Life</v>
+        <v>Slayy Point</v>
       </c>
       <c r="J26" t="str">
-        <v>1440000</v>
+        <v>8830000</v>
       </c>
       <c r="K26" t="str">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M26" t="str">
-        <v>https://www.youtube.com/watch?v=cfgp_aZJenU</v>
+        <v>https://www.youtube.com/watch?v=8nomGzgzWaA</v>
       </c>
       <c r="N26" t="str">
-        <v>https://i.ytimg.com/vi/cfgp_aZJenU/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/8nomGzgzWaA/hqdefault.jpg</v>
       </c>
       <c r="O26" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Abar without Invitation e Biyebari khelam😍||Sweetnsourcatering||  #shorts #therosogollastate</v>
+        <v>Cheapest Mix Momo Platter Of📍 Pitampura, Delhi !! #shorts</v>
       </c>
       <c r="C27" t="str">
         <v>People &amp; Blogs</v>
       </c>
       <c r="D27" t="str">
-        <v>29396559</v>
+        <v>30297319</v>
       </c>
       <c r="E27" t="str">
-        <v>802126</v>
+        <v>1369273</v>
       </c>
       <c r="F27" t="str">
-        <v>5326</v>
+        <v>3213</v>
       </c>
       <c r="G27" t="str">
-        <v>2024-03</v>
+        <v>2023-03</v>
       </c>
       <c r="H27">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I27" t="str">
-        <v>The Rosogolla State</v>
+        <v>Nik's Kitchen</v>
       </c>
       <c r="J27" t="str">
-        <v>503000</v>
+        <v>3800000</v>
       </c>
       <c r="K27" t="str">
-        <v>209</v>
+        <v>800</v>
       </c>
       <c r="L27">
         <v>9</v>
       </c>
       <c r="M27" t="str">
-        <v>https://www.youtube.com/watch?v=TUj4JNkTkcs</v>
+        <v>https://www.youtube.com/watch?v=FVrNyXktmps</v>
       </c>
       <c r="N27" t="str">
-        <v>https://i.ytimg.com/vi/TUj4JNkTkcs/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/FVrNyXktmps/hqdefault.jpg</v>
       </c>
       <c r="O27" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>ASMR EATING SPICY WHOLE CHICKEN CURRY+SPICY MUTTON CURRY+WHITE RICE+GREEN CHILLI || MUKBANG</v>
+        <v>Appam - Made Traditionally || With Two Side Dishes Cooking In Village House || The Traditional Life</v>
       </c>
       <c r="C28" t="str">
-        <v>Unknown</v>
+        <v>Howto &amp; Style</v>
       </c>
       <c r="D28" t="str">
-        <v>28944439</v>
+        <v>30174969</v>
       </c>
       <c r="E28" t="str">
-        <v>240692</v>
+        <v>241702</v>
       </c>
       <c r="F28" t="str">
-        <v>5595</v>
+        <v>7939</v>
       </c>
       <c r="G28" t="str">
-        <v>2022-06</v>
+        <v>2022-04</v>
       </c>
       <c r="H28">
-        <v>811</v>
+        <v>767</v>
       </c>
       <c r="I28" t="str">
-        <v>RF Eating ASMR</v>
+        <v>The Traditional Life</v>
       </c>
       <c r="J28" t="str">
-        <v>1320000</v>
+        <v>1440000</v>
       </c>
       <c r="K28" t="str">
-        <v>1129</v>
+        <v>36</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M28" t="str">
-        <v>https://www.youtube.com/watch?v=EelVn8_JS_8</v>
+        <v>https://www.youtube.com/watch?v=cfgp_aZJenU</v>
       </c>
       <c r="N28" t="str">
-        <v>https://i.ytimg.com/vi/EelVn8_JS_8/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/cfgp_aZJenU/hqdefault.jpg</v>
       </c>
       <c r="O28" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>বিয়ে বাড়িতে কত খেলাম! 🤤 #shorts #vlog</v>
+        <v>Abar without Invitation e Biyebari khelam😍||Sweetnsourcatering||  #shorts #therosogollastate</v>
       </c>
       <c r="C29" t="str">
+        <v>People &amp; Blogs</v>
+      </c>
+      <c r="D29" t="str">
+        <v>29398213</v>
+      </c>
+      <c r="E29" t="str">
+        <v>802142</v>
+      </c>
+      <c r="F29" t="str">
+        <v>5326</v>
+      </c>
+      <c r="G29" t="str">
+        <v>2024-03</v>
+      </c>
+      <c r="H29">
+        <v>57</v>
+      </c>
+      <c r="I29" t="str">
+        <v>The Rosogolla State</v>
+      </c>
+      <c r="J29" t="str">
+        <v>503000</v>
+      </c>
+      <c r="K29" t="str">
+        <v>209</v>
+      </c>
+      <c r="L29">
+        <v>9</v>
+      </c>
+      <c r="M29" t="str">
+        <v>https://www.youtube.com/watch?v=TUj4JNkTkcs</v>
+      </c>
+      <c r="N29" t="str">
+        <v>https://i.ytimg.com/vi/TUj4JNkTkcs/hqdefault.jpg</v>
+      </c>
+      <c r="O29" t="str">
         <v>Unknown</v>
-      </c>
-      <c r="D29" t="str">
-        <v>28162157</v>
-      </c>
-      <c r="E29" t="str">
-        <v>1158902</v>
-      </c>
-      <c r="F29" t="str">
-        <v>2992</v>
-      </c>
-      <c r="G29" t="str">
-        <v>2023-01</v>
-      </c>
-      <c r="H29">
-        <v>58</v>
-      </c>
-      <c r="I29" t="str">
-        <v>Desi pola</v>
-      </c>
-      <c r="J29" t="str">
-        <v>5610000</v>
-      </c>
-      <c r="K29" t="str">
-        <v>456</v>
-      </c>
-      <c r="L29">
-        <v>6</v>
-      </c>
-      <c r="M29" t="str">
-        <v>https://www.youtube.com/watch?v=ZM-OVPnwmfE</v>
-      </c>
-      <c r="N29" t="str">
-        <v>https://i.ytimg.com/vi/ZM-OVPnwmfE/hqdefault.jpg</v>
-      </c>
-      <c r="O29" t="str">
-        <v>IN</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Indian Boy Selling Super Spicy Korean Maggi | Indian Street Food |#shorts #short #youtubeshorts</v>
+        <v>ASMR EATING SPICY WHOLE CHICKEN CURRY+SPICY MUTTON CURRY+WHITE RICE+GREEN CHILLI || MUKBANG</v>
       </c>
       <c r="C30" t="str">
-        <v>People &amp; Blogs</v>
+        <v>Entertainment</v>
       </c>
       <c r="D30" t="str">
-        <v>28128585</v>
+        <v>28945403</v>
       </c>
       <c r="E30" t="str">
-        <v>1202351</v>
+        <v>240696</v>
       </c>
       <c r="F30" t="str">
-        <v>3387</v>
+        <v>5595</v>
       </c>
       <c r="G30" t="str">
-        <v>2023-06</v>
+        <v>2022-06</v>
       </c>
       <c r="H30">
-        <v>60</v>
+        <v>811</v>
       </c>
       <c r="I30" t="str">
-        <v xml:space="preserve">Tiger Vlogs </v>
+        <v>RF Eating ASMR</v>
       </c>
       <c r="J30" t="str">
-        <v>788000</v>
+        <v>1320000</v>
       </c>
       <c r="K30" t="str">
-        <v>631</v>
+        <v>1129</v>
       </c>
       <c r="L30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M30" t="str">
-        <v>https://www.youtube.com/watch?v=YGO5XBIwPUE</v>
+        <v>https://www.youtube.com/watch?v=EelVn8_JS_8</v>
       </c>
       <c r="N30" t="str">
-        <v>https://i.ytimg.com/vi/YGO5XBIwPUE/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/EelVn8_JS_8/hqdefault.jpg</v>
       </c>
       <c r="O30" t="str">
-        <v>IN</v>
+        <v>Pakistan</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>SPICY* MUTTON BIRYANI WITH MUTTON CURRY KORMA + CHICKEN BIRYANI EATING | FOOD EATING VIDEOS |MUKBANG</v>
+        <v>বিয়ে বাড়িতে কত খেলাম! 🤤 #shorts #vlog</v>
       </c>
       <c r="C31" t="str">
-        <v>People &amp; Blogs</v>
+        <v>Comedy</v>
       </c>
       <c r="D31" t="str">
-        <v>27173397</v>
+        <v>28163167</v>
       </c>
       <c r="E31" t="str">
-        <v>392663</v>
+        <v>1158907</v>
       </c>
       <c r="F31" t="str">
-        <v>8534</v>
+        <v>2992</v>
       </c>
       <c r="G31" t="str">
-        <v>2022-02</v>
+        <v>2023-01</v>
       </c>
       <c r="H31">
-        <v>623</v>
+        <v>58</v>
       </c>
       <c r="I31" t="str">
-        <v>BHARAT EATING SHOW</v>
+        <v>Desi pola</v>
       </c>
       <c r="J31" t="str">
-        <v>945000</v>
+        <v>5610000</v>
       </c>
       <c r="K31" t="str">
-        <v>121</v>
+        <v>456</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M31" t="str">
-        <v>https://www.youtube.com/watch?v=KrtC8Ylv-_Q</v>
+        <v>https://www.youtube.com/watch?v=ZM-OVPnwmfE</v>
       </c>
       <c r="N31" t="str">
-        <v>https://i.ytimg.com/vi/KrtC8Ylv-_Q/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/ZM-OVPnwmfE/hqdefault.jpg</v>
       </c>
       <c r="O31" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Snack🍪#food #foodie #foodvlog #minivlog #chips #india #spicy #new #indianfood #local #international</v>
+        <v>Indian Boy Selling Super Spicy Korean Maggi | Indian Street Food |#shorts #short #youtubeshorts</v>
       </c>
       <c r="C32" t="str">
-        <v>Unknown</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="D32" t="str">
-        <v>26695968</v>
+        <v>28129612</v>
       </c>
       <c r="E32" t="str">
-        <v>1084296</v>
+        <v>1202364</v>
       </c>
       <c r="F32" t="str">
-        <v>3202</v>
+        <v>3387</v>
       </c>
       <c r="G32" t="str">
-        <v>2024-02</v>
+        <v>2023-06</v>
       </c>
       <c r="H32">
         <v>60</v>
       </c>
       <c r="I32" t="str">
-        <v xml:space="preserve">Proud Opinions </v>
+        <v xml:space="preserve">Tiger Vlogs </v>
       </c>
       <c r="J32" t="str">
-        <v>2510000</v>
+        <v>788000</v>
       </c>
       <c r="K32" t="str">
-        <v>260</v>
+        <v>631</v>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M32" t="str">
-        <v>https://www.youtube.com/watch?v=T22gq-GsVi8</v>
+        <v>https://www.youtube.com/watch?v=YGO5XBIwPUE</v>
       </c>
       <c r="N32" t="str">
-        <v>https://i.ytimg.com/vi/T22gq-GsVi8/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/YGO5XBIwPUE/hqdefault.jpg</v>
       </c>
       <c r="O32" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>₹120 Paneer Kathi Roll😳😱 #shorts #kathiroll #indianstreetfood</v>
+        <v>SPICY* MUTTON BIRYANI WITH MUTTON CURRY KORMA + CHICKEN BIRYANI EATING | FOOD EATING VIDEOS |MUKBANG</v>
       </c>
       <c r="C33" t="str">
         <v>People &amp; Blogs</v>
       </c>
       <c r="D33" t="str">
-        <v>26329531</v>
+        <v>27173852</v>
       </c>
       <c r="E33" t="str">
-        <v>1024868</v>
+        <v>392665</v>
       </c>
       <c r="F33" t="str">
-        <v>2123</v>
+        <v>8534</v>
       </c>
       <c r="G33" t="str">
-        <v>2024-01</v>
+        <v>2022-02</v>
       </c>
       <c r="H33">
-        <v>40</v>
+        <v>623</v>
       </c>
       <c r="I33" t="str">
-        <v>King’s Food Z by Aditya Baisla</v>
+        <v>BHARAT EATING SHOW</v>
       </c>
       <c r="J33" t="str">
-        <v>593000</v>
+        <v>945000</v>
       </c>
       <c r="K33" t="str">
-        <v>992</v>
+        <v>121</v>
       </c>
       <c r="L33">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M33" t="str">
-        <v>https://www.youtube.com/watch?v=_fy4h_x9zFY</v>
+        <v>https://www.youtube.com/watch?v=KrtC8Ylv-_Q</v>
       </c>
       <c r="N33" t="str">
-        <v>https://i.ytimg.com/vi/_fy4h_x9zFY/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/KrtC8Ylv-_Q/hqdefault.jpg</v>
       </c>
       <c r="O33" t="str">
-        <v>IN</v>
+        <v>Unknown</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>4 big non-veg mix platter…❤️👑 #shorts</v>
+        <v>Snack🍪#food #foodie #foodvlog #minivlog #chips #india #spicy #new #indianfood #local #international</v>
       </c>
       <c r="C34" t="str">
-        <v>People &amp; Blogs</v>
+        <v>Entertainment</v>
       </c>
       <c r="D34" t="str">
-        <v>26299330</v>
+        <v>26696523</v>
       </c>
       <c r="E34" t="str">
-        <v>946791</v>
+        <v>1084301</v>
       </c>
       <c r="F34" t="str">
-        <v>3518</v>
+        <v>3202</v>
       </c>
       <c r="G34" t="str">
-        <v>2022-06</v>
+        <v>2024-02</v>
       </c>
       <c r="H34">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I34" t="str">
-        <v>Chicken Leg Piece</v>
+        <v xml:space="preserve">Proud Opinions </v>
       </c>
       <c r="J34" t="str">
-        <v>6200000</v>
+        <v>2510000</v>
       </c>
       <c r="K34" t="str">
-        <v>1195</v>
+        <v>260</v>
       </c>
       <c r="L34">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M34" t="str">
-        <v>https://www.youtube.com/watch?v=V-NNGSG3bQs</v>
+        <v>https://www.youtube.com/watch?v=T22gq-GsVi8</v>
       </c>
       <c r="N34" t="str">
-        <v>https://i.ytimg.com/vi/V-NNGSG3bQs/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/T22gq-GsVi8/hqdefault.jpg</v>
       </c>
       <c r="O34" t="str">
-        <v>IN</v>
+        <v>Unknown</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>The Great Khali 200 Roti Khaata Hai ? #streetfood #dilsefoodie #thegreatkhali</v>
+        <v>₹120 Paneer Kathi Roll😳😱 #shorts #kathiroll #indianstreetfood</v>
       </c>
       <c r="C35" t="str">
+        <v>People &amp; Blogs</v>
+      </c>
+      <c r="D35" t="str">
+        <v>26330564</v>
+      </c>
+      <c r="E35" t="str">
+        <v>1024883</v>
+      </c>
+      <c r="F35" t="str">
+        <v>2123</v>
+      </c>
+      <c r="G35" t="str">
+        <v>2024-01</v>
+      </c>
+      <c r="H35">
+        <v>40</v>
+      </c>
+      <c r="I35" t="str">
+        <v>King’s Food Z by Aditya Baisla</v>
+      </c>
+      <c r="J35" t="str">
+        <v>593000</v>
+      </c>
+      <c r="K35" t="str">
+        <v>992</v>
+      </c>
+      <c r="L35">
+        <v>10</v>
+      </c>
+      <c r="M35" t="str">
+        <v>https://www.youtube.com/watch?v=_fy4h_x9zFY</v>
+      </c>
+      <c r="N35" t="str">
+        <v>https://i.ytimg.com/vi/_fy4h_x9zFY/hqdefault.jpg</v>
+      </c>
+      <c r="O35" t="str">
         <v>Unknown</v>
-      </c>
-      <c r="D35" t="str">
-        <v>25883817</v>
-      </c>
-      <c r="E35" t="str">
-        <v>844259</v>
-      </c>
-      <c r="F35" t="str">
-        <v>2138</v>
-      </c>
-      <c r="G35" t="str">
-        <v>2022-12</v>
-      </c>
-      <c r="H35">
-        <v>34</v>
-      </c>
-      <c r="I35" t="str">
-        <v>Dilsefoodie Official</v>
-      </c>
-      <c r="J35" t="str">
-        <v>2260000</v>
-      </c>
-      <c r="K35" t="str">
-        <v>1370</v>
-      </c>
-      <c r="L35">
-        <v>7</v>
-      </c>
-      <c r="M35" t="str">
-        <v>https://www.youtube.com/watch?v=ndNFyd01gsM</v>
-      </c>
-      <c r="N35" t="str">
-        <v>https://i.ytimg.com/vi/ndNFyd01gsM/hqdefault.jpg</v>
-      </c>
-      <c r="O35" t="str">
-        <v>IN</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>SPICY WHOLE CHICKEN CURRY 🐓SPICY SCHEZWAN FRIED RICE 🔥 AND FRIED EGGS | BIG BITES | EATING SHOW</v>
+        <v>4 big non-veg mix platter…❤️👑 #shorts</v>
       </c>
       <c r="C36" t="str">
         <v>People &amp; Blogs</v>
       </c>
       <c r="D36" t="str">
-        <v>24099592</v>
+        <v>26301025</v>
       </c>
       <c r="E36" t="str">
-        <v>340559</v>
+        <v>946813</v>
       </c>
       <c r="F36" t="str">
-        <v>15029</v>
+        <v>3518</v>
       </c>
       <c r="G36" t="str">
-        <v>2021-08</v>
+        <v>2022-06</v>
       </c>
       <c r="H36">
-        <v>776</v>
+        <v>20</v>
       </c>
       <c r="I36" t="str">
-        <v>MaddyEats</v>
+        <v>Chicken Leg Piece</v>
       </c>
       <c r="J36" t="str">
-        <v>5270000</v>
+        <v>6200000</v>
       </c>
       <c r="K36" t="str">
-        <v>530</v>
+        <v>1195</v>
       </c>
       <c r="L36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M36" t="str">
-        <v>https://www.youtube.com/watch?v=7dUomToTBV4</v>
+        <v>https://www.youtube.com/watch?v=V-NNGSG3bQs</v>
       </c>
       <c r="N36" t="str">
-        <v>https://i.ytimg.com/vi/7dUomToTBV4/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/V-NNGSG3bQs/hqdefault.jpg</v>
       </c>
       <c r="O36" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Food Vlogger ka Pardafast 😱😱😱 | #shorts , #food  #nainshors , #foodvlog , #nainvlog #foodie</v>
+        <v>The Great Khali 200 Roti Khaata Hai ? #streetfood #dilsefoodie #thegreatkhali</v>
       </c>
       <c r="C37" t="str">
-        <v>People &amp; Blogs</v>
+        <v>Entertainment</v>
       </c>
       <c r="D37" t="str">
-        <v>22003645</v>
+        <v>25885270</v>
       </c>
       <c r="E37" t="str">
-        <v>1490898</v>
+        <v>844274</v>
       </c>
       <c r="F37" t="str">
-        <v>2162</v>
+        <v>2138</v>
       </c>
       <c r="G37" t="str">
-        <v>2022-07</v>
+        <v>2022-12</v>
       </c>
       <c r="H37">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="I37" t="str">
-        <v>Nain shorts</v>
+        <v>Dilsefoodie Official</v>
       </c>
       <c r="J37" t="str">
-        <v>417000</v>
+        <v>2260000</v>
       </c>
       <c r="K37" t="str">
-        <v>352</v>
+        <v>1370</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M37" t="str">
-        <v>https://www.youtube.com/watch?v=f7FurJ-BgiQ</v>
+        <v>https://www.youtube.com/watch?v=ndNFyd01gsM</v>
       </c>
       <c r="N37" t="str">
-        <v>https://i.ytimg.com/vi/f7FurJ-BgiQ/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/ndNFyd01gsM/hqdefault.jpg</v>
       </c>
       <c r="O37" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Bad Indian Street Food - Gone HUGE!</v>
+        <v>SPICY WHOLE CHICKEN CURRY 🐓SPICY SCHEZWAN FRIED RICE 🔥 AND FRIED EGGS | BIG BITES | EATING SHOW</v>
       </c>
       <c r="C38" t="str">
-        <v>Unknown</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="D38" t="str">
-        <v>21990364</v>
+        <v>24099709</v>
       </c>
       <c r="E38" t="str">
-        <v>581812</v>
+        <v>340559</v>
       </c>
       <c r="F38" t="str">
-        <v>14706</v>
+        <v>15029</v>
       </c>
       <c r="G38" t="str">
-        <v>2023-05</v>
+        <v>2021-08</v>
       </c>
       <c r="H38">
-        <v>817</v>
+        <v>776</v>
       </c>
       <c r="I38" t="str">
-        <v>Slayy Point</v>
+        <v>MaddyEats</v>
       </c>
       <c r="J38" t="str">
-        <v>8830000</v>
+        <v>5270000</v>
       </c>
       <c r="K38" t="str">
-        <v>178</v>
+        <v>530</v>
       </c>
       <c r="L38">
         <v>8</v>
       </c>
       <c r="M38" t="str">
-        <v>https://www.youtube.com/watch?v=hNykk63nROo</v>
+        <v>https://www.youtube.com/watch?v=7dUomToTBV4</v>
       </c>
       <c r="N38" t="str">
-        <v>https://i.ytimg.com/vi/hNykk63nROo/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/7dUomToTBV4/hqdefault.jpg</v>
       </c>
       <c r="O38" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>SPICY CHICKEN TANGDI KOSHA 🔥 SPICY EGG GHEE ROAST 🥚 SPICY MASALA FISH CURRY WITH RICE AND RASGULLA</v>
+        <v>2 Things You Dint Know About South Indian Food 🔥🔥 | South Indian Food Hacks | So Saute #shorts</v>
       </c>
       <c r="C39" t="str">
-        <v>People &amp; Blogs</v>
+        <v>Howto &amp; Style</v>
       </c>
       <c r="D39" t="str">
-        <v>21859037</v>
+        <v>23219796</v>
       </c>
       <c r="E39" t="str">
-        <v>221885</v>
+        <v>706803</v>
       </c>
       <c r="F39" t="str">
-        <v>5222</v>
+        <v>11166</v>
       </c>
       <c r="G39" t="str">
-        <v>2022-07</v>
+        <v>2022-10</v>
       </c>
       <c r="H39">
-        <v>749</v>
+        <v>26</v>
       </c>
       <c r="I39" t="str">
-        <v>MaddyEats</v>
+        <v>So Saute</v>
       </c>
       <c r="J39" t="str">
-        <v>5270000</v>
+        <v>4250000</v>
       </c>
       <c r="K39" t="str">
-        <v>530</v>
+        <v>1492</v>
       </c>
       <c r="L39">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M39" t="str">
-        <v>https://www.youtube.com/watch?v=xVLcXPmTEQQ</v>
+        <v>https://www.youtube.com/watch?v=M10gc6rcHw4</v>
       </c>
       <c r="N39" t="str">
-        <v>https://i.ytimg.com/vi/xVLcXPmTEQQ/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/M10gc6rcHw4/hqdefault.jpg</v>
       </c>
       <c r="O39" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Haldiram Chole Bhature VS Bikanearwala Chole Bhature ,konse better hai? 👀</v>
+        <v>Food Vlogger ka Pardafast 😱😱😱 | #shorts , #food  #nainshors , #foodvlog , #nainvlog #foodie</v>
       </c>
       <c r="C40" t="str">
-        <v>Unknown</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="D40" t="str">
-        <v>21489806</v>
+        <v>22003677</v>
       </c>
       <c r="E40" t="str">
-        <v>1291042</v>
+        <v>1490898</v>
       </c>
       <c r="F40" t="str">
-        <v>5028</v>
+        <v>2162</v>
       </c>
       <c r="G40" t="str">
-        <v>2023-05</v>
+        <v>2022-07</v>
       </c>
       <c r="H40">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I40" t="str">
-        <v>cravingsandcalories vlogs</v>
+        <v>Nain shorts</v>
       </c>
       <c r="J40" t="str">
-        <v>3420000</v>
+        <v>417000</v>
       </c>
       <c r="K40" t="str">
-        <v>1134</v>
+        <v>352</v>
       </c>
       <c r="L40">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M40" t="str">
-        <v>https://www.youtube.com/watch?v=fRLyzdskOAA</v>
+        <v>https://www.youtube.com/watch?v=f7FurJ-BgiQ</v>
       </c>
       <c r="N40" t="str">
-        <v>https://i.ytimg.com/vi/fRLyzdskOAA/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/f7FurJ-BgiQ/hqdefault.jpg</v>
       </c>
       <c r="O40" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Surat MOST Expensive Pani Puri 💸 |  6 pieces In JUST 50/-#creatingforindia #streetfood #shorts</v>
+        <v>Bad Indian Street Food - Gone HUGE!</v>
       </c>
       <c r="C41" t="str">
-        <v>People &amp; Blogs</v>
+        <v>Comedy</v>
       </c>
       <c r="D41" t="str">
-        <v>21122250</v>
+        <v>21991184</v>
       </c>
       <c r="E41" t="str">
-        <v>914251</v>
+        <v>581817</v>
       </c>
       <c r="F41" t="str">
-        <v>2120</v>
+        <v>14705</v>
       </c>
       <c r="G41" t="str">
-        <v>2023-02</v>
+        <v>2023-05</v>
       </c>
       <c r="H41">
-        <v>60</v>
+        <v>817</v>
       </c>
       <c r="I41" t="str">
-        <v>Mammi Ka Dhaba</v>
+        <v>Slayy Point</v>
       </c>
       <c r="J41" t="str">
-        <v>2050000</v>
+        <v>8830000</v>
       </c>
       <c r="K41" t="str">
-        <v>951</v>
+        <v>178</v>
       </c>
       <c r="L41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M41" t="str">
-        <v>https://www.youtube.com/watch?v=LPVKSkAVhM8</v>
+        <v>https://www.youtube.com/watch?v=hNykk63nROo</v>
       </c>
       <c r="N41" t="str">
-        <v>https://i.ytimg.com/vi/LPVKSkAVhM8/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/hNykk63nROo/hqdefault.jpg</v>
       </c>
       <c r="O41" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>दिल्ली की सबसे सस्ती थाली Rs-749/- वाली😍❤️😱 #foodwithbackbenchers #shorts_ #streetfood #foodie</v>
+        <v>SPICY CHICKEN TANGDI KOSHA 🔥 SPICY EGG GHEE ROAST 🥚 SPICY MASALA FISH CURRY WITH RICE AND RASGULLA</v>
       </c>
       <c r="C42" t="str">
         <v>People &amp; Blogs</v>
       </c>
       <c r="D42" t="str">
-        <v>21048237</v>
+        <v>21859586</v>
       </c>
       <c r="E42" t="str">
-        <v>868933</v>
+        <v>221885</v>
       </c>
       <c r="F42" t="str">
-        <v>2144</v>
+        <v>5222</v>
       </c>
       <c r="G42" t="str">
-        <v>2024-03</v>
+        <v>2022-07</v>
       </c>
       <c r="H42">
-        <v>55</v>
+        <v>749</v>
       </c>
       <c r="I42" t="str">
-        <v>Food with backbenchers</v>
+        <v>MaddyEats</v>
       </c>
       <c r="J42" t="str">
-        <v>657000</v>
+        <v>5270000</v>
       </c>
       <c r="K42" t="str">
-        <v>1122</v>
+        <v>530</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M42" t="str">
-        <v>https://www.youtube.com/watch?v=-brkpbFdLX8</v>
+        <v>https://www.youtube.com/watch?v=xVLcXPmTEQQ</v>
       </c>
       <c r="N42" t="str">
-        <v>https://i.ytimg.com/vi/-brkpbFdLX8/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/xVLcXPmTEQQ/hqdefault.jpg</v>
       </c>
       <c r="O42" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Indian Street Food Tour in Mumbai, India | Street Food in India BEST Curry</v>
+        <v>Haldiram Chole Bhature VS Bikanearwala Chole Bhature ,konse better hai? 👀</v>
       </c>
       <c r="C43" t="str">
-        <v>Unknown</v>
+        <v>Entertainment</v>
       </c>
       <c r="D43" t="str">
-        <v>20797500</v>
+        <v>21490004</v>
       </c>
       <c r="E43" t="str">
-        <v>211844</v>
+        <v>1291044</v>
       </c>
       <c r="F43" t="str">
-        <v>15389</v>
+        <v>5028</v>
       </c>
       <c r="G43" t="str">
-        <v>2016-07</v>
+        <v>2023-05</v>
       </c>
       <c r="H43">
-        <v>699</v>
+        <v>58</v>
       </c>
       <c r="I43" t="str">
-        <v>The Food Ranger</v>
+        <v>cravingsandcalories vlogs</v>
       </c>
       <c r="J43" t="str">
-        <v>5930000</v>
+        <v>3420000</v>
       </c>
       <c r="K43" t="str">
-        <v>400</v>
+        <v>1134</v>
       </c>
       <c r="L43">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M43" t="str">
-        <v>https://www.youtube.com/watch?v=ltUDZD1vgxQ</v>
+        <v>https://www.youtube.com/watch?v=fRLyzdskOAA</v>
       </c>
       <c r="N43" t="str">
-        <v>https://i.ytimg.com/vi/ltUDZD1vgxQ/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/fRLyzdskOAA/hqdefault.jpg</v>
       </c>
       <c r="O43" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Korean Food🌭#food #foodie #foodvlog #streetfood #koreanfood #cheap #spicyfood #delhifood #foodshort</v>
+        <v>Surat MOST Expensive Pani Puri 💸 |  6 pieces In JUST 50/-#creatingforindia #streetfood #shorts</v>
       </c>
       <c r="C44" t="str">
-        <v>Unknown</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="D44" t="str">
-        <v>20407059</v>
+        <v>21122366</v>
       </c>
       <c r="E44" t="str">
-        <v>948172</v>
+        <v>914254</v>
       </c>
       <c r="F44" t="str">
-        <v>1206</v>
+        <v>2120</v>
       </c>
       <c r="G44" t="str">
-        <v>2023-09</v>
+        <v>2023-02</v>
       </c>
       <c r="H44">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I44" t="str">
-        <v xml:space="preserve">Proud Opinions </v>
+        <v>Mammi Ka Dhaba</v>
       </c>
       <c r="J44" t="str">
-        <v>2510000</v>
+        <v>2050000</v>
       </c>
       <c r="K44" t="str">
-        <v>260</v>
+        <v>951</v>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M44" t="str">
-        <v>https://www.youtube.com/watch?v=IcmKzPBxZlM</v>
+        <v>https://www.youtube.com/watch?v=LPVKSkAVhM8</v>
       </c>
       <c r="N44" t="str">
-        <v>https://i.ytimg.com/vi/IcmKzPBxZlM/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/LPVKSkAVhM8/hqdefault.jpg</v>
       </c>
       <c r="O44" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Food Vlogger Kese Pagal Banate hai 😱😱😱😱 | #shorts #nainshorts #youtubeshorts #short  #foodie</v>
+        <v>दिल्ली की सबसे सस्ती थाली Rs-749/- वाली😍❤️😱 #foodwithbackbenchers #shorts_ #streetfood #foodie</v>
       </c>
       <c r="C45" t="str">
         <v>People &amp; Blogs</v>
       </c>
       <c r="D45" t="str">
-        <v>20214481</v>
+        <v>21048627</v>
       </c>
       <c r="E45" t="str">
-        <v>625014</v>
+        <v>868938</v>
       </c>
       <c r="F45" t="str">
-        <v>3043</v>
+        <v>2144</v>
       </c>
       <c r="G45" t="str">
-        <v>2022-07</v>
+        <v>2024-03</v>
       </c>
       <c r="H45">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I45" t="str">
-        <v>Nain shorts</v>
+        <v>Food with backbenchers</v>
       </c>
       <c r="J45" t="str">
-        <v>417000</v>
+        <v>657000</v>
       </c>
       <c r="K45" t="str">
-        <v>352</v>
+        <v>1122</v>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45" t="str">
-        <v>https://www.youtube.com/watch?v=kZQcyb1l0M0</v>
+        <v>https://www.youtube.com/watch?v=-brkpbFdLX8</v>
       </c>
       <c r="N45" t="str">
-        <v>https://i.ytimg.com/vi/kZQcyb1l0M0/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/-brkpbFdLX8/hqdefault.jpg</v>
       </c>
       <c r="O45" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Cabana’s special ￼Handi combo🥵😱 #foodshorts #foodies #shortsfeed #streetfoodindia #foodvlog #food</v>
+        <v>Korean Food🌭#food #foodie #foodvlog #streetfood #koreanfood #cheap #spicyfood #delhifood #foodshort</v>
       </c>
       <c r="C46" t="str">
-        <v>People &amp; Blogs</v>
+        <v>Entertainment</v>
       </c>
       <c r="D46" t="str">
-        <v>18210868</v>
+        <v>20408206</v>
       </c>
       <c r="E46" t="str">
-        <v>534671</v>
+        <v>948189</v>
       </c>
       <c r="F46" t="str">
-        <v>558</v>
+        <v>1206</v>
       </c>
       <c r="G46" t="str">
-        <v>2023-10</v>
+        <v>2023-09</v>
       </c>
       <c r="H46">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I46" t="str">
-        <v>sardaarjifoodie</v>
+        <v xml:space="preserve">Proud Opinions </v>
       </c>
       <c r="J46" t="str">
-        <v>1380000</v>
+        <v>2510000</v>
       </c>
       <c r="K46" t="str">
-        <v>1390</v>
+        <v>260</v>
       </c>
       <c r="L46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M46" t="str">
-        <v>https://www.youtube.com/watch?v=2sngkA1umYo</v>
+        <v>https://www.youtube.com/watch?v=IcmKzPBxZlM</v>
       </c>
       <c r="N46" t="str">
-        <v>https://i.ytimg.com/vi/2sngkA1umYo/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/IcmKzPBxZlM/hqdefault.jpg</v>
       </c>
       <c r="O46" t="str">
-        <v>IN</v>
+        <v>Unknown</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Cheap v/s expensive famous momos😱😍 | Delhi Street Food Challenge 😍 | @sosaute #shorts</v>
+        <v>Food Vlogger Kese Pagal Banate hai 😱😱😱😱 | #shorts #nainshorts #youtubeshorts #short  #foodie</v>
       </c>
       <c r="C47" t="str">
-        <v>Unknown</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="D47" t="str">
-        <v>17954080</v>
+        <v>20214954</v>
       </c>
       <c r="E47" t="str">
-        <v>879821</v>
+        <v>625014</v>
       </c>
       <c r="F47" t="str">
-        <v>1010</v>
+        <v>3043</v>
       </c>
       <c r="G47" t="str">
-        <v>2023-05</v>
+        <v>2022-07</v>
       </c>
       <c r="H47">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I47" t="str">
-        <v>So Saute</v>
+        <v>Nain shorts</v>
       </c>
       <c r="J47" t="str">
-        <v>4250000</v>
+        <v>417000</v>
       </c>
       <c r="K47" t="str">
-        <v>1492</v>
+        <v>352</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M47" t="str">
-        <v>https://www.youtube.com/watch?v=ZPQ-pqM__jQ</v>
+        <v>https://www.youtube.com/watch?v=kZQcyb1l0M0</v>
       </c>
       <c r="N47" t="str">
-        <v>https://i.ytimg.com/vi/ZPQ-pqM__jQ/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/kZQcyb1l0M0/hqdefault.jpg</v>
       </c>
       <c r="O47" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>SPICY WHOLE CHICKEN CURRY, SPICY MUTTON CURRY  CHICKEN FRY LEG PIECE WITH FRIED RICE, EATING SHOW</v>
+        <v>Cabana’s special ￼Handi combo🥵😱 #foodshorts #foodies #shortsfeed #streetfoodindia #foodvlog #food</v>
       </c>
       <c r="C48" t="str">
+        <v>People &amp; Blogs</v>
+      </c>
+      <c r="D48" t="str">
+        <v>18210951</v>
+      </c>
+      <c r="E48" t="str">
+        <v>534671</v>
+      </c>
+      <c r="F48" t="str">
+        <v>558</v>
+      </c>
+      <c r="G48" t="str">
+        <v>2023-10</v>
+      </c>
+      <c r="H48">
+        <v>45</v>
+      </c>
+      <c r="I48" t="str">
+        <v>sardaarjifoodie</v>
+      </c>
+      <c r="J48" t="str">
+        <v>1380000</v>
+      </c>
+      <c r="K48" t="str">
+        <v>1390</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48" t="str">
+        <v>https://www.youtube.com/watch?v=2sngkA1umYo</v>
+      </c>
+      <c r="N48" t="str">
+        <v>https://i.ytimg.com/vi/2sngkA1umYo/hqdefault.jpg</v>
+      </c>
+      <c r="O48" t="str">
         <v>Unknown</v>
-      </c>
-      <c r="D48" t="str">
-        <v>17163057</v>
-      </c>
-      <c r="E48" t="str">
-        <v>169141</v>
-      </c>
-      <c r="F48" t="str">
-        <v>4412</v>
-      </c>
-      <c r="G48" t="str">
-        <v>2022-05</v>
-      </c>
-      <c r="H48">
-        <v>801</v>
-      </c>
-      <c r="I48" t="str">
-        <v>BD Best Ever Food</v>
-      </c>
-      <c r="J48" t="str">
-        <v>939000</v>
-      </c>
-      <c r="K48" t="str">
-        <v>519</v>
-      </c>
-      <c r="L48">
-        <v>4</v>
-      </c>
-      <c r="M48" t="str">
-        <v>https://www.youtube.com/watch?v=v_zST4nha18</v>
-      </c>
-      <c r="N48" t="str">
-        <v>https://i.ytimg.com/vi/v_zST4nha18/hqdefault.jpg</v>
-      </c>
-      <c r="O48" t="str">
-        <v>IN</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>🔥 First floor wale Chole Kulche | India Street Food Shorts | YourBrownFoodie #shorts #shortsfeed</v>
+        <v>TRIP TO GUJARAT | Family Travel Vlog | Living Old Memories | Then vs Now | Aayu and Pihu Show</v>
       </c>
       <c r="C49" t="str">
         <v>People &amp; Blogs</v>
       </c>
       <c r="D49" t="str">
-        <v>16924030</v>
+        <v>18127674</v>
       </c>
       <c r="E49" t="str">
-        <v>1118979</v>
+        <v>270844</v>
       </c>
       <c r="F49" t="str">
-        <v>643</v>
+        <v>9824</v>
       </c>
       <c r="G49" t="str">
-        <v>2022-11</v>
+        <v>2023-03</v>
       </c>
       <c r="H49">
-        <v>32</v>
+        <v>1694</v>
       </c>
       <c r="I49" t="str">
-        <v>YourBrownFoodie</v>
+        <v>Aayu and Pihu Show</v>
       </c>
       <c r="J49" t="str">
-        <v>1340000</v>
+        <v>18100000</v>
       </c>
       <c r="K49" t="str">
-        <v>967</v>
+        <v>577</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M49" t="str">
-        <v>https://www.youtube.com/watch?v=qD5vCK5pPnk</v>
+        <v>https://www.youtube.com/watch?v=LwwM-TSBZHI</v>
       </c>
       <c r="N49" t="str">
-        <v>https://i.ytimg.com/vi/qD5vCK5pPnk/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/LwwM-TSBZHI/hqdefault.jpg</v>
       </c>
       <c r="O49" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Biryani🥘#food #foodie #foodvlog #minivlog #india #pakistan #indianfood #biryani #nonveg #streetfood</v>
+        <v>Cheap v/s expensive famous momos😱😍 | Delhi Street Food Challenge 😍 | @sosaute #shorts</v>
       </c>
       <c r="C50" t="str">
-        <v>Unknown</v>
+        <v>Howto &amp; Style</v>
       </c>
       <c r="D50" t="str">
-        <v>16492876</v>
+        <v>17955483</v>
       </c>
       <c r="E50" t="str">
-        <v>902250</v>
+        <v>879840</v>
       </c>
       <c r="F50" t="str">
-        <v>13382</v>
+        <v>1010</v>
       </c>
       <c r="G50" t="str">
-        <v>2024-02</v>
+        <v>2023-05</v>
       </c>
       <c r="H50">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I50" t="str">
-        <v xml:space="preserve">Proud Opinions </v>
+        <v>So Saute</v>
       </c>
       <c r="J50" t="str">
-        <v>2510000</v>
+        <v>4250000</v>
       </c>
       <c r="K50" t="str">
-        <v>260</v>
+        <v>1492</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M50" t="str">
-        <v>https://www.youtube.com/watch?v=u5hiLNDmfoY</v>
+        <v>https://www.youtube.com/watch?v=ZPQ-pqM__jQ</v>
       </c>
       <c r="N50" t="str">
-        <v>https://i.ytimg.com/vi/u5hiLNDmfoY/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/ZPQ-pqM__jQ/hqdefault.jpg</v>
       </c>
       <c r="O50" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Favorite Foods of Indian Politicians #shorts</v>
+        <v>SPICY WHOLE CHICKEN CURRY, SPICY MUTTON CURRY  CHICKEN FRY LEG PIECE WITH FRIED RICE, EATING SHOW</v>
       </c>
       <c r="C51" t="str">
-        <v>People &amp; Blogs</v>
+        <v>Entertainment</v>
       </c>
       <c r="D51" t="str">
-        <v>16329231</v>
+        <v>17163772</v>
       </c>
       <c r="E51" t="str">
-        <v>326408</v>
+        <v>169142</v>
       </c>
       <c r="F51" t="str">
-        <v>2848</v>
+        <v>4412</v>
       </c>
       <c r="G51" t="str">
-        <v>2023-02</v>
+        <v>2022-05</v>
       </c>
       <c r="H51">
-        <v>37</v>
+        <v>801</v>
       </c>
       <c r="I51" t="str">
-        <v>Crusst</v>
+        <v>BD Best Ever Food</v>
       </c>
       <c r="J51" t="str">
-        <v>19700</v>
+        <v>939000</v>
       </c>
       <c r="K51" t="str">
-        <v>126</v>
+        <v>519</v>
       </c>
       <c r="L51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M51" t="str">
-        <v>https://www.youtube.com/watch?v=2_1CdBpm8OQ</v>
+        <v>https://www.youtube.com/watch?v=v_zST4nha18</v>
       </c>
       <c r="N51" t="str">
-        <v>https://i.ytimg.com/vi/2_1CdBpm8OQ/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/v_zST4nha18/hqdefault.jpg</v>
       </c>
       <c r="O51" t="str">
-        <v>IN</v>
+        <v>Bangladesh</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Eating ONLY LAST ITEM On the Menu for a Day 😅🥹😍</v>
+        <v>SPICY WHOLE CHICKEN CURRY, SPICY MUTTON CURRY  CHICKEN FRY LEG PIECE WITH FRIED RICE, EATING SHOW</v>
       </c>
       <c r="C52" t="str">
-        <v>Unknown</v>
+        <v>Entertainment</v>
       </c>
       <c r="D52" t="str">
-        <v>15859730</v>
+        <v>17163772</v>
       </c>
       <c r="E52" t="str">
-        <v>1094911</v>
+        <v>169142</v>
       </c>
       <c r="F52" t="str">
-        <v>3301</v>
+        <v>4412</v>
       </c>
       <c r="G52" t="str">
-        <v>2023-05</v>
+        <v>2022-05</v>
       </c>
       <c r="H52">
-        <v>58</v>
+        <v>801</v>
       </c>
       <c r="I52" t="str">
-        <v>cravingsandcalories vlogs</v>
+        <v>BD Best Ever Food</v>
       </c>
       <c r="J52" t="str">
-        <v>3420000</v>
+        <v>939000</v>
       </c>
       <c r="K52" t="str">
-        <v>1134</v>
+        <v>519</v>
       </c>
       <c r="L52">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M52" t="str">
-        <v>https://www.youtube.com/watch?v=0oDr49QTO28</v>
+        <v>https://www.youtube.com/watch?v=v_zST4nha18</v>
       </c>
       <c r="N52" t="str">
-        <v>https://i.ytimg.com/vi/0oDr49QTO28/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/v_zST4nha18/hqdefault.jpg</v>
       </c>
       <c r="O52" t="str">
-        <v>IN</v>
+        <v>Bangladesh</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>NAVRATRI MELA🍱#food #foodie #foodvlog #minivlog #streetfood #indianfood #noodles #delhi #navratri</v>
+        <v>Biryani🥘#food #foodie #foodvlog #minivlog #india #pakistan #indianfood #biryani #nonveg #streetfood</v>
       </c>
       <c r="C53" t="str">
-        <v>Unknown</v>
+        <v>Entertainment</v>
       </c>
       <c r="D53" t="str">
-        <v>15504707</v>
+        <v>16493684</v>
       </c>
       <c r="E53" t="str">
-        <v>634635</v>
+        <v>902259</v>
       </c>
       <c r="F53" t="str">
-        <v>947</v>
+        <v>13383</v>
       </c>
       <c r="G53" t="str">
-        <v>2023-10</v>
+        <v>2024-02</v>
       </c>
       <c r="H53">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I53" t="str">
         <v xml:space="preserve">Proud Opinions </v>
@@ -2725,1283 +2725,1283 @@
         <v>2</v>
       </c>
       <c r="M53" t="str">
-        <v>https://www.youtube.com/watch?v=jY7N0FpGSZY</v>
+        <v>https://www.youtube.com/watch?v=u5hiLNDmfoY</v>
       </c>
       <c r="N53" t="str">
-        <v>https://i.ytimg.com/vi/jY7N0FpGSZY/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/u5hiLNDmfoY/hqdefault.jpg</v>
       </c>
       <c r="O53" t="str">
-        <v>IN</v>
+        <v>Unknown</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>UNLIMITED FOOD In Rs.219 At Dadi Ki Rasoi, Sarojini Nagar, Kanpur | Indian Street Food | #shorts</v>
+        <v>Favorite Foods of Indian Politicians #shorts</v>
       </c>
       <c r="C54" t="str">
         <v>People &amp; Blogs</v>
       </c>
       <c r="D54" t="str">
-        <v>15480257</v>
+        <v>16341702</v>
       </c>
       <c r="E54" t="str">
-        <v>1027652</v>
+        <v>326507</v>
       </c>
       <c r="F54" t="str">
-        <v>2300</v>
+        <v>2849</v>
       </c>
       <c r="G54" t="str">
-        <v>2022-03</v>
+        <v>2023-02</v>
       </c>
       <c r="H54">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="I54" t="str">
-        <v>Humbhifooodie</v>
+        <v>Crusst</v>
       </c>
       <c r="J54" t="str">
-        <v>298000</v>
+        <v>19700</v>
       </c>
       <c r="K54" t="str">
-        <v>1067</v>
+        <v>126</v>
       </c>
       <c r="L54">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M54" t="str">
-        <v>https://www.youtube.com/watch?v=Dp37RWk39iQ</v>
+        <v>https://www.youtube.com/watch?v=2_1CdBpm8OQ</v>
       </c>
       <c r="N54" t="str">
-        <v>https://i.ytimg.com/vi/Dp37RWk39iQ/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/2_1CdBpm8OQ/hqdefault.jpg</v>
       </c>
       <c r="O54" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>3X GIANT CHINESE THALI EATING CHALLENGE | WORLD'S BIGGEST THALI COMPETITION | Food Challenge(Ep-338)</v>
+        <v>Eating ONLY LAST ITEM On the Menu for a Day 😅🥹😍</v>
       </c>
       <c r="C55" t="str">
-        <v>Unknown</v>
+        <v>Entertainment</v>
       </c>
       <c r="D55" t="str">
-        <v>15106864</v>
+        <v>15859934</v>
       </c>
       <c r="E55" t="str">
-        <v>322205</v>
+        <v>1094917</v>
       </c>
       <c r="F55" t="str">
-        <v>5120</v>
+        <v>3301</v>
       </c>
       <c r="G55" t="str">
-        <v>2020-12</v>
+        <v>2023-05</v>
       </c>
       <c r="H55">
-        <v>705</v>
+        <v>58</v>
       </c>
       <c r="I55" t="str">
-        <v>Wake'N'Bite</v>
+        <v>cravingsandcalories vlogs</v>
       </c>
       <c r="J55" t="str">
-        <v>5950000</v>
+        <v>3420000</v>
       </c>
       <c r="K55" t="str">
-        <v>1654</v>
+        <v>1134</v>
       </c>
       <c r="L55">
         <v>7</v>
       </c>
       <c r="M55" t="str">
-        <v>https://www.youtube.com/watch?v=bVvyaQbpTzs</v>
+        <v>https://www.youtube.com/watch?v=0oDr49QTO28</v>
       </c>
       <c r="N55" t="str">
-        <v>https://i.ytimg.com/vi/bVvyaQbpTzs/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/0oDr49QTO28/hqdefault.jpg</v>
       </c>
       <c r="O55" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>DOLMA AUNTY CHINISE CHAAT 😳😳 इतना bakwaas नही खाया होगा 🤮🤮 ॥ worst food</v>
+        <v>NAVRATRI MELA🍱#food #foodie #foodvlog #minivlog #streetfood #indianfood #noodles #delhi #navratri</v>
       </c>
       <c r="C56" t="str">
-        <v>People &amp; Blogs</v>
+        <v>Entertainment</v>
       </c>
       <c r="D56" t="str">
-        <v>14566918</v>
+        <v>15505533</v>
       </c>
       <c r="E56" t="str">
-        <v>953545</v>
+        <v>634640</v>
       </c>
       <c r="F56" t="str">
-        <v>4735</v>
+        <v>947</v>
       </c>
       <c r="G56" t="str">
-        <v>2022-11</v>
+        <v>2023-10</v>
       </c>
       <c r="H56">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I56" t="str">
-        <v xml:space="preserve">HUNGRY BRO </v>
+        <v xml:space="preserve">Proud Opinions </v>
       </c>
       <c r="J56" t="str">
-        <v>816000</v>
+        <v>2510000</v>
       </c>
       <c r="K56" t="str">
-        <v>456</v>
+        <v>260</v>
       </c>
       <c r="L56">
         <v>2</v>
       </c>
       <c r="M56" t="str">
-        <v>https://www.youtube.com/watch?v=RNnI9bbzFnU</v>
+        <v>https://www.youtube.com/watch?v=jY7N0FpGSZY</v>
       </c>
       <c r="N56" t="str">
-        <v>https://i.ytimg.com/vi/RNnI9bbzFnU/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/jY7N0FpGSZY/hqdefault.jpg</v>
       </c>
       <c r="O56" t="str">
-        <v>IN</v>
+        <v>Unknown</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>ইলিশ মাছ ভাজাই পৃথিবীর সর্বশ্রেষ্ঠ খাবার ❤️ #minivlog #shorts #foodvlog</v>
+        <v>UNLIMITED FOOD In Rs.219 At Dadi Ki Rasoi, Sarojini Nagar, Kanpur | Indian Street Food | #shorts</v>
       </c>
       <c r="C57" t="str">
         <v>People &amp; Blogs</v>
       </c>
       <c r="D57" t="str">
-        <v>13904293</v>
+        <v>15480427</v>
       </c>
       <c r="E57" t="str">
-        <v>459022</v>
+        <v>1027652</v>
       </c>
       <c r="F57" t="str">
-        <v>2869</v>
+        <v>2300</v>
       </c>
       <c r="G57" t="str">
-        <v>2023-07</v>
+        <v>2022-03</v>
       </c>
       <c r="H57">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I57" t="str">
-        <v>Bong Soulmates</v>
+        <v>Humbhifooodie</v>
       </c>
       <c r="J57" t="str">
-        <v>398000</v>
+        <v>298000</v>
       </c>
       <c r="K57" t="str">
-        <v>987</v>
+        <v>1067</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M57" t="str">
-        <v>https://www.youtube.com/watch?v=yC0LisRGqLg</v>
+        <v>https://www.youtube.com/watch?v=Dp37RWk39iQ</v>
       </c>
       <c r="N57" t="str">
-        <v>https://i.ytimg.com/vi/yC0LisRGqLg/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/Dp37RWk39iQ/hqdefault.jpg</v>
       </c>
       <c r="O57" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Eating Only First Thing on the Menu for a Day || First Item on menu for 24 Hours 😅😅</v>
+        <v>3X GIANT CHINESE THALI EATING CHALLENGE | WORLD'S BIGGEST THALI COMPETITION | Food Challenge(Ep-338)</v>
       </c>
       <c r="C58" t="str">
-        <v>Unknown</v>
+        <v>Entertainment</v>
       </c>
       <c r="D58" t="str">
-        <v>13842876</v>
+        <v>15107052</v>
       </c>
       <c r="E58" t="str">
-        <v>1023535</v>
+        <v>322206</v>
       </c>
       <c r="F58" t="str">
-        <v>1059</v>
+        <v>5120</v>
       </c>
       <c r="G58" t="str">
-        <v>2023-01</v>
+        <v>2020-12</v>
       </c>
       <c r="H58">
-        <v>57</v>
+        <v>705</v>
       </c>
       <c r="I58" t="str">
-        <v>cravingsandcalories vlogs</v>
+        <v>Wake'N'Bite</v>
       </c>
       <c r="J58" t="str">
-        <v>3420000</v>
+        <v>5950000</v>
       </c>
       <c r="K58" t="str">
-        <v>1134</v>
+        <v>1654</v>
       </c>
       <c r="L58">
         <v>7</v>
       </c>
       <c r="M58" t="str">
-        <v>https://www.youtube.com/watch?v=yTOv5GsapBA</v>
+        <v>https://www.youtube.com/watch?v=bVvyaQbpTzs</v>
       </c>
       <c r="N58" t="str">
-        <v>https://i.ytimg.com/vi/yTOv5GsapBA/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/bVvyaQbpTzs/hqdefault.jpg</v>
       </c>
       <c r="O58" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Pakistan Street Food VS India Street Food!! Who does it better?</v>
+        <v>DOLMA AUNTY CHINISE CHAAT 😳😳 इतना bakwaas नही खाया होगा 🤮🤮 ॥ worst food</v>
       </c>
       <c r="C59" t="str">
+        <v>People &amp; Blogs</v>
+      </c>
+      <c r="D59" t="str">
+        <v>14567010</v>
+      </c>
+      <c r="E59" t="str">
+        <v>953545</v>
+      </c>
+      <c r="F59" t="str">
+        <v>4735</v>
+      </c>
+      <c r="G59" t="str">
+        <v>2022-11</v>
+      </c>
+      <c r="H59">
+        <v>60</v>
+      </c>
+      <c r="I59" t="str">
+        <v xml:space="preserve">HUNGRY BRO </v>
+      </c>
+      <c r="J59" t="str">
+        <v>816000</v>
+      </c>
+      <c r="K59" t="str">
+        <v>456</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59" t="str">
+        <v>https://www.youtube.com/watch?v=RNnI9bbzFnU</v>
+      </c>
+      <c r="N59" t="str">
+        <v>https://i.ytimg.com/vi/RNnI9bbzFnU/hqdefault.jpg</v>
+      </c>
+      <c r="O59" t="str">
         <v>Unknown</v>
-      </c>
-      <c r="D59" t="str">
-        <v>13819550</v>
-      </c>
-      <c r="E59" t="str">
-        <v>231979</v>
-      </c>
-      <c r="F59" t="str">
-        <v>25536</v>
-      </c>
-      <c r="G59" t="str">
-        <v>2022-05</v>
-      </c>
-      <c r="H59">
-        <v>727</v>
-      </c>
-      <c r="I59" t="str">
-        <v>More Best Ever Food Review Show</v>
-      </c>
-      <c r="J59" t="str">
-        <v>2650000</v>
-      </c>
-      <c r="K59" t="str">
-        <v>371</v>
-      </c>
-      <c r="L59">
-        <v>5</v>
-      </c>
-      <c r="M59" t="str">
-        <v>https://www.youtube.com/watch?v=pn0LSvhafYw</v>
-      </c>
-      <c r="N59" t="str">
-        <v>https://i.ytimg.com/vi/pn0LSvhafYw/hqdefault.jpg</v>
-      </c>
-      <c r="O59" t="str">
-        <v>IN</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Mi mamá me descubre el tatuaje 😅 #cooking #storytime #food #blog #comida</v>
+        <v>ইলিশ মাছ ভাজাই পৃথিবীর সর্বশ্রেষ্ঠ খাবার ❤️ #minivlog #shorts #foodvlog</v>
       </c>
       <c r="C60" t="str">
         <v>People &amp; Blogs</v>
       </c>
       <c r="D60" t="str">
-        <v>13801211</v>
+        <v>13905112</v>
       </c>
       <c r="E60" t="str">
-        <v>698915</v>
+        <v>459028</v>
       </c>
       <c r="F60" t="str">
-        <v>674</v>
+        <v>2869</v>
       </c>
       <c r="G60" t="str">
-        <v>2023-05</v>
+        <v>2023-07</v>
       </c>
       <c r="H60">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I60" t="str">
-        <v>mariajessica y tommy</v>
+        <v>Bong Soulmates</v>
       </c>
       <c r="J60" t="str">
-        <v>1500000</v>
+        <v>398000</v>
       </c>
       <c r="K60" t="str">
-        <v>859</v>
+        <v>987</v>
       </c>
       <c r="L60">
         <v>4</v>
       </c>
       <c r="M60" t="str">
-        <v>https://www.youtube.com/watch?v=AbtErTHzOWg</v>
+        <v>https://www.youtube.com/watch?v=yC0LisRGqLg</v>
       </c>
       <c r="N60" t="str">
-        <v>https://i.ytimg.com/vi/AbtErTHzOWg/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/yC0LisRGqLg/hqdefault.jpg</v>
       </c>
       <c r="O60" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>50₹ me unlimited खाना mill gaya 🍟😆 #shorts #vlog #trending</v>
+        <v>Eating Only First Thing on the Menu for a Day || First Item on menu for 24 Hours 😅😅</v>
       </c>
       <c r="C61" t="str">
-        <v>People &amp; Blogs</v>
+        <v>Education</v>
       </c>
       <c r="D61" t="str">
-        <v>13763985</v>
+        <v>13843142</v>
       </c>
       <c r="E61" t="str">
-        <v>969884</v>
+        <v>1023542</v>
       </c>
       <c r="F61" t="str">
-        <v>1180</v>
+        <v>1059</v>
       </c>
       <c r="G61" t="str">
-        <v>2023-06</v>
+        <v>2023-01</v>
       </c>
       <c r="H61">
         <v>57</v>
       </c>
       <c r="I61" t="str">
-        <v>JATIN GROVER</v>
+        <v>cravingsandcalories vlogs</v>
       </c>
       <c r="J61" t="str">
-        <v>1610000</v>
+        <v>3420000</v>
       </c>
       <c r="K61" t="str">
-        <v>274</v>
+        <v>1134</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M61" t="str">
-        <v>https://www.youtube.com/watch?v=A5Cy8-cLcJo</v>
+        <v>https://www.youtube.com/watch?v=yTOv5GsapBA</v>
       </c>
       <c r="N61" t="str">
-        <v>https://i.ytimg.com/vi/A5Cy8-cLcJo/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/yTOv5GsapBA/hqdefault.jpg</v>
       </c>
       <c r="O61" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>😱We tried 20 Varieties Of Samosa In Tilak Nagar , Delhi !! #shorts</v>
+        <v>Pakistan Street Food VS India Street Food!! Who does it better?</v>
       </c>
       <c r="C62" t="str">
-        <v>People &amp; Blogs</v>
+        <v>Travel &amp; Events</v>
       </c>
       <c r="D62" t="str">
-        <v>13771759</v>
+        <v>13819679</v>
       </c>
       <c r="E62" t="str">
-        <v>720077</v>
+        <v>231982</v>
       </c>
       <c r="F62" t="str">
-        <v>1665</v>
+        <v>25536</v>
       </c>
       <c r="G62" t="str">
-        <v>2023-04</v>
+        <v>2022-05</v>
       </c>
       <c r="H62">
-        <v>60</v>
+        <v>727</v>
       </c>
       <c r="I62" t="str">
-        <v>Nik's Kitchen</v>
+        <v>More Best Ever Food Review Show</v>
       </c>
       <c r="J62" t="str">
-        <v>3800000</v>
+        <v>2650000</v>
       </c>
       <c r="K62" t="str">
-        <v>800</v>
+        <v>371</v>
       </c>
       <c r="L62">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M62" t="str">
-        <v>https://www.youtube.com/watch?v=B-PtvhfISJQ</v>
+        <v>https://www.youtube.com/watch?v=pn0LSvhafYw</v>
       </c>
       <c r="N62" t="str">
-        <v>https://i.ytimg.com/vi/B-PtvhfISJQ/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/pn0LSvhafYw/hqdefault.jpg</v>
       </c>
       <c r="O62" t="str">
-        <v>IN</v>
+        <v>United States</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>🤤Budget Friendly🍱Chinese Platter At📍Rohini M2k!! #shorts</v>
+        <v>Mi mamá me descubre el tatuaje 😅 #cooking #storytime #food #blog #comida</v>
       </c>
       <c r="C63" t="str">
         <v>People &amp; Blogs</v>
       </c>
       <c r="D63" t="str">
-        <v>13716559</v>
+        <v>13801737</v>
       </c>
       <c r="E63" t="str">
-        <v>763028</v>
+        <v>698949</v>
       </c>
       <c r="F63" t="str">
-        <v>1259</v>
+        <v>674</v>
       </c>
       <c r="G63" t="str">
-        <v>2023-02</v>
+        <v>2023-05</v>
       </c>
       <c r="H63">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I63" t="str">
-        <v>Nik's Kitchen</v>
+        <v>mariajessica y tommy</v>
       </c>
       <c r="J63" t="str">
-        <v>3800000</v>
+        <v>1500000</v>
       </c>
       <c r="K63" t="str">
-        <v>800</v>
+        <v>859</v>
       </c>
       <c r="L63">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M63" t="str">
-        <v>https://www.youtube.com/watch?v=FzrZFC5uUjk</v>
+        <v>https://www.youtube.com/watch?v=AbtErTHzOWg</v>
       </c>
       <c r="N63" t="str">
-        <v>https://i.ytimg.com/vi/FzrZFC5uUjk/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/AbtErTHzOWg/hqdefault.jpg</v>
       </c>
       <c r="O63" t="str">
-        <v>IN</v>
+        <v>United States</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Breakfast🥞#food #foodie #foodvlog #minivlog #india #america #indianfood #streetfood #shorts #new</v>
+        <v>50₹ me unlimited खाना mill gaya 🍟😆 #shorts #vlog #trending</v>
       </c>
       <c r="C64" t="str">
-        <v>Unknown</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="D64" t="str">
-        <v>13558745</v>
+        <v>13764237</v>
       </c>
       <c r="E64" t="str">
-        <v>829616</v>
+        <v>969886</v>
       </c>
       <c r="F64" t="str">
-        <v>1117</v>
+        <v>1180</v>
       </c>
       <c r="G64" t="str">
-        <v>2024-04</v>
+        <v>2023-06</v>
       </c>
       <c r="H64">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I64" t="str">
-        <v xml:space="preserve">Proud Opinions </v>
+        <v>JATIN GROVER</v>
       </c>
       <c r="J64" t="str">
-        <v>2510000</v>
+        <v>1610000</v>
       </c>
       <c r="K64" t="str">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="L64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M64" t="str">
-        <v>https://www.youtube.com/watch?v=PbQhfOv3KhE</v>
+        <v>https://www.youtube.com/watch?v=A5Cy8-cLcJo</v>
       </c>
       <c r="N64" t="str">
-        <v>https://i.ytimg.com/vi/PbQhfOv3KhE/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/A5Cy8-cLcJo/hqdefault.jpg</v>
       </c>
       <c r="O64" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>PANIPURI😍 | Indian street food #shorts</v>
+        <v>😱We tried 20 Varieties Of Samosa In Tilak Nagar , Delhi !! #shorts</v>
       </c>
       <c r="C65" t="str">
-        <v>Unknown</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="D65" t="str">
-        <v>13429606</v>
+        <v>13772606</v>
       </c>
       <c r="E65" t="str">
-        <v>575553</v>
+        <v>720081</v>
       </c>
       <c r="F65" t="str">
-        <v>1375</v>
+        <v>1665</v>
       </c>
       <c r="G65" t="str">
-        <v>2024-01</v>
+        <v>2023-04</v>
       </c>
       <c r="H65">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I65" t="str">
-        <v>The travel express</v>
+        <v>Nik's Kitchen</v>
       </c>
       <c r="J65" t="str">
-        <v>1270000</v>
+        <v>3800000</v>
       </c>
       <c r="K65" t="str">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M65" t="str">
-        <v>https://www.youtube.com/watch?v=yTyyZZyHEj4</v>
+        <v>https://www.youtube.com/watch?v=B-PtvhfISJQ</v>
       </c>
       <c r="N65" t="str">
-        <v>https://i.ytimg.com/vi/yTyyZZyHEj4/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/B-PtvhfISJQ/hqdefault.jpg</v>
       </c>
       <c r="O65" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>28KG Biggest Maharaja Thali | Unlimited Maharaja Bhog Thali in Pune | Pune Food Tour</v>
+        <v>🤤Budget Friendly🍱Chinese Platter At📍Rohini M2k!! #shorts</v>
       </c>
       <c r="C66" t="str">
-        <v>Unknown</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="D66" t="str">
-        <v>13273007</v>
+        <v>13717114</v>
       </c>
       <c r="E66" t="str">
-        <v>59914</v>
+        <v>763038</v>
       </c>
       <c r="F66" t="str">
-        <v>1381</v>
+        <v>1259</v>
       </c>
       <c r="G66" t="str">
-        <v>2023-05</v>
+        <v>2023-02</v>
       </c>
       <c r="H66">
-        <v>1115</v>
+        <v>60</v>
       </c>
       <c r="I66" t="str">
-        <v>Virtual Banjara™</v>
+        <v>Nik's Kitchen</v>
       </c>
       <c r="J66" t="str">
-        <v>413000</v>
+        <v>3800000</v>
       </c>
       <c r="K66" t="str">
-        <v>386</v>
+        <v>800</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M66" t="str">
-        <v>https://www.youtube.com/watch?v=g5auhwVxSfU</v>
+        <v>https://www.youtube.com/watch?v=FzrZFC5uUjk</v>
       </c>
       <c r="N66" t="str">
-        <v>https://i.ytimg.com/vi/g5auhwVxSfU/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/FzrZFC5uUjk/hqdefault.jpg</v>
       </c>
       <c r="O66" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>ASMR EATING*CHICKEN CURRY*WHOLE CHICKEN CURRY+GREEN CHILLI+EXTRA GRAVY || MUKBANG SHOW</v>
+        <v>Breakfast🥞#food #foodie #foodvlog #minivlog #india #america #indianfood #streetfood #shorts #new</v>
       </c>
       <c r="C67" t="str">
+        <v>Entertainment</v>
+      </c>
+      <c r="D67" t="str">
+        <v>13559605</v>
+      </c>
+      <c r="E67" t="str">
+        <v>829633</v>
+      </c>
+      <c r="F67" t="str">
+        <v>1117</v>
+      </c>
+      <c r="G67" t="str">
+        <v>2024-04</v>
+      </c>
+      <c r="H67">
+        <v>60</v>
+      </c>
+      <c r="I67" t="str">
+        <v xml:space="preserve">Proud Opinions </v>
+      </c>
+      <c r="J67" t="str">
+        <v>2510000</v>
+      </c>
+      <c r="K67" t="str">
+        <v>260</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67" t="str">
+        <v>https://www.youtube.com/watch?v=PbQhfOv3KhE</v>
+      </c>
+      <c r="N67" t="str">
+        <v>https://i.ytimg.com/vi/PbQhfOv3KhE/hqdefault.jpg</v>
+      </c>
+      <c r="O67" t="str">
         <v>Unknown</v>
-      </c>
-      <c r="D67" t="str">
-        <v>13237482</v>
-      </c>
-      <c r="E67" t="str">
-        <v>128126</v>
-      </c>
-      <c r="F67" t="str">
-        <v>4035</v>
-      </c>
-      <c r="G67" t="str">
-        <v>2022-03</v>
-      </c>
-      <c r="H67">
-        <v>891</v>
-      </c>
-      <c r="I67" t="str">
-        <v>RF Eating ASMR</v>
-      </c>
-      <c r="J67" t="str">
-        <v>1320000</v>
-      </c>
-      <c r="K67" t="str">
-        <v>1129</v>
-      </c>
-      <c r="L67">
-        <v>4</v>
-      </c>
-      <c r="M67" t="str">
-        <v>https://www.youtube.com/watch?v=hpLQ41ZyYv4</v>
-      </c>
-      <c r="N67" t="str">
-        <v>https://i.ytimg.com/vi/hpLQ41ZyYv4/hqdefault.jpg</v>
-      </c>
-      <c r="O67" t="str">
-        <v>IN</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>ఫుల్ తందూరి చికెన్😍🍗 #tandoori  #foodvlogs #Tiger #tea  #telugufood#shorts #youtubeshorts</v>
+        <v>PANIPURI😍 | Indian street food #shorts</v>
       </c>
       <c r="C68" t="str">
-        <v>People &amp; Blogs</v>
+        <v>Howto &amp; Style</v>
       </c>
       <c r="D68" t="str">
-        <v>12828981</v>
+        <v>13430471</v>
       </c>
       <c r="E68" t="str">
-        <v>740395</v>
+        <v>575569</v>
       </c>
       <c r="F68" t="str">
-        <v>1161</v>
+        <v>1375</v>
       </c>
       <c r="G68" t="str">
-        <v>2022-07</v>
+        <v>2024-01</v>
       </c>
       <c r="H68">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I68" t="str">
-        <v>TigerYT</v>
+        <v>The travel express</v>
       </c>
       <c r="J68" t="str">
-        <v>1150000</v>
+        <v>1270000</v>
       </c>
       <c r="K68" t="str">
-        <v>813</v>
+        <v>1250</v>
       </c>
       <c r="L68">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M68" t="str">
-        <v>https://www.youtube.com/watch?v=4rEJO76dFE8</v>
+        <v>https://www.youtube.com/watch?v=yTyyZZyHEj4</v>
       </c>
       <c r="N68" t="str">
-        <v>https://i.ytimg.com/vi/4rEJO76dFE8/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/yTyyZZyHEj4/hqdefault.jpg</v>
       </c>
       <c r="O68" t="str">
-        <v>IN</v>
+        <v>Unknown</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>KFC CHIZZA খেয়ে নিলাম! 🍕 🤢 #shorts #vlog</v>
+        <v>28KG Biggest Maharaja Thali | Unlimited Maharaja Bhog Thali in Pune | Pune Food Tour</v>
       </c>
       <c r="C69" t="str">
-        <v>Unknown</v>
+        <v>Travel &amp; Events</v>
       </c>
       <c r="D69" t="str">
-        <v>12822999</v>
+        <v>13273390</v>
+      </c>
+      <c r="E69" t="str">
+        <v>59914</v>
       </c>
       <c r="F69" t="str">
-        <v>1240</v>
+        <v>1381</v>
       </c>
       <c r="G69" t="str">
-        <v>2023-01</v>
+        <v>2023-05</v>
       </c>
       <c r="H69">
-        <v>59</v>
+        <v>1115</v>
       </c>
       <c r="I69" t="str">
-        <v>Desi pola</v>
+        <v>Virtual Banjara™</v>
       </c>
       <c r="J69" t="str">
-        <v>5610000</v>
+        <v>413000</v>
       </c>
       <c r="K69" t="str">
-        <v>456</v>
+        <v>386</v>
       </c>
       <c r="L69">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M69" t="str">
-        <v>https://www.youtube.com/watch?v=TfM5M0OuRwA</v>
+        <v>https://www.youtube.com/watch?v=g5auhwVxSfU</v>
       </c>
       <c r="N69" t="str">
-        <v>https://i.ytimg.com/vi/TfM5M0OuRwA/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/g5auhwVxSfU/hqdefault.jpg</v>
       </c>
       <c r="O69" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Family Platter🙄😵|| Indian food</v>
+        <v>ASMR EATING*CHICKEN CURRY*WHOLE CHICKEN CURRY+GREEN CHILLI+EXTRA GRAVY || MUKBANG SHOW</v>
       </c>
       <c r="C70" t="str">
-        <v>People &amp; Blogs</v>
+        <v>Entertainment</v>
       </c>
       <c r="D70" t="str">
-        <v>12755766</v>
+        <v>13237808</v>
       </c>
       <c r="E70" t="str">
-        <v>535975</v>
+        <v>128128</v>
       </c>
       <c r="F70" t="str">
-        <v>9146</v>
+        <v>4036</v>
       </c>
       <c r="G70" t="str">
-        <v>2023-05</v>
+        <v>2022-03</v>
       </c>
       <c r="H70">
-        <v>25</v>
+        <v>891</v>
       </c>
       <c r="I70" t="str">
-        <v>bhukkad dilli ke</v>
+        <v>RF Eating ASMR</v>
       </c>
       <c r="J70" t="str">
-        <v>3090000</v>
+        <v>1320000</v>
       </c>
       <c r="K70" t="str">
-        <v>1100</v>
+        <v>1129</v>
       </c>
       <c r="L70">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M70" t="str">
-        <v>https://www.youtube.com/watch?v=nDjG0ybfOyg</v>
+        <v>https://www.youtube.com/watch?v=hpLQ41ZyYv4</v>
       </c>
       <c r="N70" t="str">
-        <v>https://i.ytimg.com/vi/nDjG0ybfOyg/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/hpLQ41ZyYv4/hqdefault.jpg</v>
       </c>
       <c r="O70" t="str">
-        <v>IN</v>
+        <v>Pakistan</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>বিয়ে বাড়ির ভোজ ।পোলাও মাটন কষা। বেবি নান, ডাল মাখানি, ফিস বাটার ফ্রাই। দারুন খাবার🤪</v>
+        <v>KFC CHIZZA খেয়ে নিলাম! 🍕 🤢 #shorts #vlog</v>
       </c>
       <c r="C71" t="str">
-        <v>People &amp; Blogs</v>
+        <v>Comedy</v>
       </c>
       <c r="D71" t="str">
-        <v>12156736</v>
-      </c>
-      <c r="E71" t="str">
-        <v>340621</v>
+        <v>12823372</v>
+      </c>
+      <c r="F71" t="str">
+        <v>1240</v>
       </c>
       <c r="G71" t="str">
-        <v>2023-07</v>
+        <v>2023-01</v>
       </c>
       <c r="H71">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I71" t="str">
-        <v>Petuk DaBhai</v>
+        <v>Desi pola</v>
       </c>
       <c r="J71" t="str">
-        <v>291000</v>
+        <v>5610000</v>
       </c>
       <c r="K71" t="str">
-        <v>169</v>
+        <v>456</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M71" t="str">
-        <v>https://www.youtube.com/watch?v=M3ZOFkjgIN4</v>
+        <v>https://www.youtube.com/watch?v=TfM5M0OuRwA</v>
       </c>
       <c r="N71" t="str">
-        <v>https://i.ytimg.com/vi/M3ZOFkjgIN4/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/TfM5M0OuRwA/hqdefault.jpg</v>
       </c>
       <c r="O71" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Cheese Sandwich | Ahmedabad foodies | Indian food blog | Cheesy #shorts | Paneer fast food video</v>
+        <v>Family Platter🙄😵|| Indian food</v>
       </c>
       <c r="C72" t="str">
         <v>People &amp; Blogs</v>
       </c>
       <c r="D72" t="str">
-        <v>11782952</v>
+        <v>12756877</v>
       </c>
       <c r="E72" t="str">
-        <v>282567</v>
+        <v>535985</v>
       </c>
       <c r="F72" t="str">
-        <v>1456</v>
+        <v>9146</v>
       </c>
       <c r="G72" t="str">
-        <v>2021-01</v>
+        <v>2023-05</v>
       </c>
       <c r="H72">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I72" t="str">
-        <v>Foodie Sid</v>
+        <v>bhukkad dilli ke</v>
       </c>
       <c r="J72" t="str">
-        <v>48600</v>
+        <v>3090000</v>
       </c>
       <c r="K72" t="str">
-        <v>703</v>
+        <v>1100</v>
       </c>
       <c r="L72">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M72" t="str">
-        <v>https://www.youtube.com/watch?v=a8AnaYZsCtY</v>
+        <v>https://www.youtube.com/watch?v=nDjG0ybfOyg</v>
       </c>
       <c r="N72" t="str">
-        <v>https://i.ytimg.com/vi/a8AnaYZsCtY/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/nDjG0ybfOyg/hqdefault.jpg</v>
       </c>
       <c r="O72" t="str">
-        <v>IN</v>
+        <v>Unknown</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Laxman Bhai Ka Bihari Style Khasi Mutton Making In Patna Rs. 130/- Only #patnafood #shorts</v>
+        <v>বিয়ে বাড়ির ভোজ ।পোলাও মাটন কষা। বেবি নান, ডাল মাখানি, ফিস বাটার ফ্রাই। দারুন খাবার🤪</v>
       </c>
       <c r="C73" t="str">
-        <v>Unknown</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="D73" t="str">
-        <v>11520859</v>
+        <v>12157179</v>
       </c>
       <c r="E73" t="str">
-        <v>557888</v>
-      </c>
-      <c r="F73" t="str">
-        <v>3469</v>
+        <v>340623</v>
       </c>
       <c r="G73" t="str">
-        <v>2024-07</v>
+        <v>2023-07</v>
       </c>
       <c r="H73">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I73" t="str">
-        <v>INDIA EAT MANIA</v>
+        <v>Petuk DaBhai</v>
       </c>
       <c r="J73" t="str">
-        <v>7640000</v>
+        <v>291000</v>
       </c>
       <c r="K73" t="str">
-        <v>2436</v>
+        <v>169</v>
       </c>
       <c r="L73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M73" t="str">
-        <v>https://www.youtube.com/watch?v=9kdGkFYzj0E</v>
+        <v>https://www.youtube.com/watch?v=M3ZOFkjgIN4</v>
       </c>
       <c r="N73" t="str">
-        <v>https://i.ytimg.com/vi/9kdGkFYzj0E/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/M3ZOFkjgIN4/hqdefault.jpg</v>
       </c>
       <c r="O73" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Office Ka Unlimited Food ❤️ Office food vlog🤤 #shorts #unlimitedfood #thali</v>
+        <v>Cheese Sandwich | Ahmedabad foodies | Indian food blog | Cheesy #shorts | Paneer fast food video</v>
       </c>
       <c r="C74" t="str">
-        <v>Unknown</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="D74" t="str">
-        <v>11293147</v>
+        <v>11782952</v>
       </c>
       <c r="E74" t="str">
-        <v>618867</v>
+        <v>282567</v>
       </c>
       <c r="F74" t="str">
-        <v>2045</v>
+        <v>1456</v>
       </c>
       <c r="G74" t="str">
-        <v>2023-03</v>
+        <v>2021-01</v>
       </c>
       <c r="H74">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="I74" t="str">
-        <v>Motu Foodiee</v>
+        <v>Foodie Sid</v>
       </c>
       <c r="J74" t="str">
-        <v>1270000</v>
+        <v>48600</v>
       </c>
       <c r="K74" t="str">
-        <v>602</v>
+        <v>703</v>
       </c>
       <c r="L74">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M74" t="str">
-        <v>https://www.youtube.com/watch?v=JJE2wfQImTg</v>
+        <v>https://www.youtube.com/watch?v=a8AnaYZsCtY</v>
       </c>
       <c r="N74" t="str">
-        <v>https://i.ytimg.com/vi/JJE2wfQImTg/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/a8AnaYZsCtY/hqdefault.jpg</v>
       </c>
       <c r="O74" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>GUJARAT FOOD VLOG | Food vloggers for 24 Hours | Family Travel Vlog | Aayu and Pihu Show</v>
+        <v>Laxman Bhai Ka Bihari Style Khasi Mutton Making In Patna Rs. 130/- Only #patnafood #shorts</v>
       </c>
       <c r="C75" t="str">
-        <v>People &amp; Blogs</v>
+        <v>Entertainment</v>
       </c>
       <c r="D75" t="str">
-        <v>10826275</v>
+        <v>11521462</v>
       </c>
       <c r="E75" t="str">
-        <v>93213</v>
+        <v>557901</v>
       </c>
       <c r="F75" t="str">
-        <v>10394</v>
+        <v>3469</v>
       </c>
       <c r="G75" t="str">
-        <v>2023-03</v>
+        <v>2024-07</v>
       </c>
       <c r="H75">
-        <v>1792</v>
+        <v>60</v>
       </c>
       <c r="I75" t="str">
-        <v>Aayu and Pihu Show</v>
+        <v>INDIA EAT MANIA</v>
       </c>
       <c r="J75" t="str">
-        <v>18100000</v>
+        <v>7640000</v>
       </c>
       <c r="K75" t="str">
-        <v>577</v>
+        <v>2436</v>
       </c>
       <c r="L75">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M75" t="str">
-        <v>https://www.youtube.com/watch?v=r53YgFj8Vjk</v>
+        <v>https://www.youtube.com/watch?v=9kdGkFYzj0E</v>
       </c>
       <c r="N75" t="str">
-        <v>https://i.ytimg.com/vi/r53YgFj8Vjk/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/9kdGkFYzj0E/hqdefault.jpg</v>
       </c>
       <c r="O75" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>India’s Biggest Vegetarian Thali 🌱 (4000/- Rs only)🔥</v>
+        <v>Office Ka Unlimited Food ❤️ Office food vlog🤤 #shorts #unlimitedfood #thali</v>
       </c>
       <c r="C76" t="str">
-        <v>People &amp; Blogs</v>
+        <v>Howto &amp; Style</v>
       </c>
       <c r="D76" t="str">
-        <v>10728722</v>
+        <v>11293214</v>
       </c>
       <c r="E76" t="str">
-        <v>1024014</v>
+        <v>618868</v>
       </c>
       <c r="F76" t="str">
-        <v>27043</v>
+        <v>2045</v>
       </c>
       <c r="G76" t="str">
-        <v>2023-04</v>
+        <v>2023-03</v>
       </c>
       <c r="H76">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I76" t="str">
-        <v>Manchale</v>
+        <v>Motu Foodiee</v>
       </c>
       <c r="J76" t="str">
-        <v>2260000</v>
+        <v>1270000</v>
       </c>
       <c r="K76" t="str">
-        <v>814</v>
+        <v>602</v>
       </c>
       <c r="L76">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M76" t="str">
-        <v>https://www.youtube.com/watch?v=KpAamP7Z1xc</v>
+        <v>https://www.youtube.com/watch?v=JJE2wfQImTg</v>
       </c>
       <c r="N76" t="str">
-        <v>https://i.ytimg.com/vi/KpAamP7Z1xc/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/JJE2wfQImTg/hqdefault.jpg</v>
       </c>
       <c r="O76" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Nueva vida sin padres/ bikini #cooking #storytime #food #blog</v>
+        <v>GUJARAT FOOD VLOG | Food vloggers for 24 Hours | Family Travel Vlog | Aayu and Pihu Show</v>
       </c>
       <c r="C77" t="str">
         <v>People &amp; Blogs</v>
       </c>
       <c r="D77" t="str">
-        <v>10546828</v>
+        <v>10826522</v>
       </c>
       <c r="E77" t="str">
-        <v>549505</v>
+        <v>93214</v>
       </c>
       <c r="F77" t="str">
-        <v>734</v>
+        <v>10394</v>
       </c>
       <c r="G77" t="str">
-        <v>2023-06</v>
+        <v>2023-03</v>
       </c>
       <c r="H77">
-        <v>59</v>
+        <v>1792</v>
       </c>
       <c r="I77" t="str">
-        <v>mariajessica y tommy</v>
+        <v>Aayu and Pihu Show</v>
       </c>
       <c r="J77" t="str">
-        <v>1500000</v>
+        <v>18100000</v>
       </c>
       <c r="K77" t="str">
-        <v>859</v>
+        <v>577</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M77" t="str">
-        <v>https://www.youtube.com/watch?v=wzv-9hw8JlU</v>
+        <v>https://www.youtube.com/watch?v=r53YgFj8Vjk</v>
       </c>
       <c r="N77" t="str">
-        <v>https://i.ytimg.com/vi/wzv-9hw8JlU/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/r53YgFj8Vjk/hqdefault.jpg</v>
       </c>
       <c r="O77" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Haldiram Chole Bhature Vs Tewari Brothers Chole Bhature 🤤 কোনটা ভালো খেতে ? 👀 #shorts #vlog</v>
+        <v>India’s Biggest Vegetarian Thali 🌱 (4000/- Rs only)🔥</v>
       </c>
       <c r="C78" t="str">
-        <v>Unknown</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="D78" t="str">
-        <v>10474482</v>
+        <v>10728894</v>
       </c>
       <c r="E78" t="str">
-        <v>432510</v>
+        <v>1024016</v>
       </c>
       <c r="F78" t="str">
-        <v>1008</v>
+        <v>27043</v>
       </c>
       <c r="G78" t="str">
-        <v>2024-02</v>
+        <v>2023-04</v>
       </c>
       <c r="H78">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I78" t="str">
-        <v>Desi pola</v>
+        <v>Manchale</v>
       </c>
       <c r="J78" t="str">
-        <v>5610000</v>
+        <v>2260000</v>
       </c>
       <c r="K78" t="str">
-        <v>456</v>
+        <v>814</v>
       </c>
       <c r="L78">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M78" t="str">
-        <v>https://www.youtube.com/watch?v=zlCBukYQ-o8</v>
+        <v>https://www.youtube.com/watch?v=KpAamP7Z1xc</v>
       </c>
       <c r="N78" t="str">
-        <v>https://i.ytimg.com/vi/zlCBukYQ-o8/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/KpAamP7Z1xc/hqdefault.jpg</v>
       </c>
       <c r="O78" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>₹ 49 ka pizza 🍕 street food mathura #shorts #viral #trending</v>
+        <v>Nueva vida sin padres/ bikini #cooking #storytime #food #blog</v>
       </c>
       <c r="C79" t="str">
         <v>People &amp; Blogs</v>
       </c>
       <c r="D79" t="str">
-        <v>10449901</v>
+        <v>10547210</v>
       </c>
       <c r="E79" t="str">
-        <v>700469</v>
+        <v>549531</v>
       </c>
       <c r="F79" t="str">
-        <v>1272</v>
+        <v>734</v>
       </c>
       <c r="G79" t="str">
-        <v>2023-12</v>
+        <v>2023-06</v>
       </c>
       <c r="H79">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I79" t="str">
-        <v>foodies aao</v>
+        <v>mariajessica y tommy</v>
       </c>
       <c r="J79" t="str">
-        <v>6220000</v>
+        <v>1500000</v>
       </c>
       <c r="K79" t="str">
-        <v>1172</v>
+        <v>859</v>
       </c>
       <c r="L79">
         <v>4</v>
       </c>
       <c r="M79" t="str">
-        <v>https://www.youtube.com/watch?v=zjLrUMR2MFg</v>
+        <v>https://www.youtube.com/watch?v=wzv-9hw8JlU</v>
       </c>
       <c r="N79" t="str">
-        <v>https://i.ytimg.com/vi/zjLrUMR2MFg/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/wzv-9hw8JlU/hqdefault.jpg</v>
       </c>
       <c r="O79" t="str">
-        <v>IN</v>
+        <v>United States</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Best Non Veg Street Food at Jama Masjid पुरानी दिल्ली in Ramazan | Best Street Food of Old Delhi! 🇮🇳</v>
+        <v>Haldiram Chole Bhature Vs Tewari Brothers Chole Bhature 🤤 কোনটা ভালো খেতে ? 👀 #shorts #vlog</v>
       </c>
       <c r="C80" t="str">
-        <v>Unknown</v>
+        <v>Comedy</v>
       </c>
       <c r="D80" t="str">
-        <v>10415678</v>
+        <v>10474818</v>
       </c>
       <c r="E80" t="str">
-        <v>199775</v>
+        <v>432513</v>
       </c>
       <c r="F80" t="str">
-        <v>7946</v>
+        <v>1008</v>
       </c>
       <c r="G80" t="str">
-        <v>2020-12</v>
+        <v>2024-02</v>
       </c>
       <c r="H80">
-        <v>1231</v>
+        <v>50</v>
       </c>
       <c r="I80" t="str">
-        <v>Spiceler</v>
+        <v>Desi pola</v>
       </c>
       <c r="J80" t="str">
-        <v>614000</v>
+        <v>5610000</v>
       </c>
       <c r="K80" t="str">
-        <v>46</v>
+        <v>456</v>
       </c>
       <c r="L80">
         <v>6</v>
       </c>
       <c r="M80" t="str">
-        <v>https://www.youtube.com/watch?v=RCgbrvDqYL0</v>
+        <v>https://www.youtube.com/watch?v=zlCBukYQ-o8</v>
       </c>
       <c r="N80" t="str">
-        <v>https://i.ytimg.com/vi/RCgbrvDqYL0/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/zlCBukYQ-o8/hqdefault.jpg</v>
       </c>
       <c r="O80" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Eating Only Supermarket Food For a Day 😍😍</v>
+        <v>₹ 49 ka pizza 🍕 street food mathura #shorts #viral #trending</v>
       </c>
       <c r="C81" t="str">
-        <v>Unknown</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="D81" t="str">
-        <v>10310723</v>
+        <v>10450740</v>
       </c>
       <c r="E81" t="str">
-        <v>811427</v>
+        <v>700488</v>
       </c>
       <c r="F81" t="str">
-        <v>2006</v>
+        <v>1272</v>
       </c>
       <c r="G81" t="str">
-        <v>2023-05</v>
+        <v>2023-12</v>
       </c>
       <c r="H81">
         <v>60</v>
       </c>
       <c r="I81" t="str">
-        <v>cravingsandcalories vlogs</v>
+        <v>foodies aao</v>
       </c>
       <c r="J81" t="str">
-        <v>3420000</v>
+        <v>6220000</v>
       </c>
       <c r="K81" t="str">
-        <v>1134</v>
+        <v>1172</v>
       </c>
       <c r="L81">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M81" t="str">
-        <v>https://www.youtube.com/watch?v=MysSDcu02-U</v>
+        <v>https://www.youtube.com/watch?v=zjLrUMR2MFg</v>
       </c>
       <c r="N81" t="str">
-        <v>https://i.ytimg.com/vi/MysSDcu02-U/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/zjLrUMR2MFg/hqdefault.jpg</v>
       </c>
       <c r="O81" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>💥 வெறும் 50/- Rupees ku Unlimited Foods Tharangala ⁉️ #shorts #thedsquarevlogs</v>
+        <v>Eating Only Supermarket Food For a Day 😍😍</v>
       </c>
       <c r="C82" t="str">
-        <v>People &amp; Blogs</v>
+        <v>Entertainment</v>
       </c>
       <c r="D82" t="str">
-        <v>10176468</v>
+        <v>10310902</v>
       </c>
       <c r="E82" t="str">
-        <v>437421</v>
+        <v>811430</v>
       </c>
       <c r="F82" t="str">
-        <v>593</v>
+        <v>2006</v>
       </c>
       <c r="G82" t="str">
-        <v>2022-08</v>
+        <v>2023-05</v>
       </c>
       <c r="H82">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I82" t="str">
-        <v>The D Square Vlogs</v>
+        <v>cravingsandcalories vlogs</v>
       </c>
       <c r="J82" t="str">
-        <v>1870000</v>
+        <v>3420000</v>
       </c>
       <c r="K82" t="str">
-        <v>1075</v>
+        <v>1134</v>
       </c>
       <c r="L82">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M82" t="str">
-        <v>https://www.youtube.com/watch?v=rXpZV7YYbNw</v>
+        <v>https://www.youtube.com/watch?v=MysSDcu02-U</v>
       </c>
       <c r="N82" t="str">
-        <v>https://i.ytimg.com/vi/rXpZV7YYbNw/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/MysSDcu02-U/hqdefault.jpg</v>
       </c>
       <c r="O82" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="83">
@@ -4012,7 +4012,7 @@
         <v>People &amp; Blogs</v>
       </c>
       <c r="D83" t="str">
-        <v>9964070</v>
+        <v>9964172</v>
       </c>
       <c r="E83" t="str">
         <v>448034</v>
@@ -4045,7 +4045,7 @@
         <v>https://i.ytimg.com/vi/eev1psxoPbU/hqdefault.jpg</v>
       </c>
       <c r="O83" t="str">
-        <v>IN</v>
+        <v>Unknown</v>
       </c>
     </row>
     <row r="84">
@@ -4056,10 +4056,10 @@
         <v>People &amp; Blogs</v>
       </c>
       <c r="D84" t="str">
-        <v>9971507</v>
+        <v>9971912</v>
       </c>
       <c r="E84" t="str">
-        <v>523081</v>
+        <v>523086</v>
       </c>
       <c r="F84" t="str">
         <v>764</v>
@@ -4089,7 +4089,7 @@
         <v>https://i.ytimg.com/vi/VL2POh5PsAg/hqdefault.jpg</v>
       </c>
       <c r="O84" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="85">
@@ -4097,13 +4097,13 @@
         <v>Kohli Vs Dhoni🥘#food #foodie #foodvlog #indianfood #streetfood #biryani #msdhoni #viratkohli #ipl</v>
       </c>
       <c r="C85" t="str">
-        <v>Unknown</v>
+        <v>Entertainment</v>
       </c>
       <c r="D85" t="str">
-        <v>9969267</v>
+        <v>9969873</v>
       </c>
       <c r="E85" t="str">
-        <v>445880</v>
+        <v>445892</v>
       </c>
       <c r="F85" t="str">
         <v>1244</v>
@@ -4133,7 +4133,7 @@
         <v>https://i.ytimg.com/vi/UMNBmMnrN8I/hqdefault.jpg</v>
       </c>
       <c r="O85" t="str">
-        <v>IN</v>
+        <v>Unknown</v>
       </c>
     </row>
     <row r="86">
@@ -4144,10 +4144,10 @@
         <v>People &amp; Blogs</v>
       </c>
       <c r="D86" t="str">
-        <v>9544932</v>
+        <v>9545776</v>
       </c>
       <c r="E86" t="str">
-        <v>673053</v>
+        <v>673072</v>
       </c>
       <c r="F86" t="str">
         <v>976</v>
@@ -4177,7 +4177,7 @@
         <v>https://i.ytimg.com/vi/VQn2VkmGpoA/hqdefault.jpg</v>
       </c>
       <c r="O86" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="87">
@@ -4185,13 +4185,13 @@
         <v>What i eat in a Day #minivlog #shorts</v>
       </c>
       <c r="C87" t="str">
-        <v>Unknown</v>
+        <v>Howto &amp; Style</v>
       </c>
       <c r="D87" t="str">
-        <v>9524745</v>
+        <v>9527331</v>
       </c>
       <c r="E87" t="str">
-        <v>503814</v>
+        <v>503844</v>
       </c>
       <c r="F87" t="str">
         <v>1495</v>
@@ -4221,7 +4221,7 @@
         <v>https://i.ytimg.com/vi/4otRDSbgKkA/hqdefault.jpg</v>
       </c>
       <c r="O87" t="str">
-        <v>IN</v>
+        <v>Unknown</v>
       </c>
     </row>
     <row r="88">
@@ -4229,13 +4229,13 @@
         <v>India Vs America🥘#food #foodie #foodvlog #minivlog #indianfood #india #burger #chicken #comparison</v>
       </c>
       <c r="C88" t="str">
-        <v>Unknown</v>
+        <v>Entertainment</v>
       </c>
       <c r="D88" t="str">
-        <v>9105550</v>
+        <v>9106266</v>
       </c>
       <c r="E88" t="str">
-        <v>489847</v>
+        <v>489857</v>
       </c>
       <c r="F88" t="str">
         <v>1117</v>
@@ -4265,7 +4265,7 @@
         <v>https://i.ytimg.com/vi/2vzw5FZ5rNo/hqdefault.jpg</v>
       </c>
       <c r="O88" t="str">
-        <v>IN</v>
+        <v>Unknown</v>
       </c>
     </row>
     <row r="89">
@@ -4276,10 +4276,10 @@
         <v>People &amp; Blogs</v>
       </c>
       <c r="D89" t="str">
-        <v>9073058</v>
+        <v>9073444</v>
       </c>
       <c r="E89" t="str">
-        <v>501735</v>
+        <v>501747</v>
       </c>
       <c r="F89" t="str">
         <v>203</v>
@@ -4309,7 +4309,7 @@
         <v>https://i.ytimg.com/vi/mxH3v8RCr6A/hqdefault.jpg</v>
       </c>
       <c r="O89" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="90">
@@ -4317,13 +4317,13 @@
         <v>Ala Rahi || Karachi famous restaurant || Most delicious food in  Karachi|| #youtubeshorts #food</v>
       </c>
       <c r="C90" t="str">
-        <v>Unknown</v>
+        <v>Travel &amp; Events</v>
       </c>
       <c r="D90" t="str">
-        <v>9033177</v>
+        <v>9033279</v>
       </c>
       <c r="E90" t="str">
-        <v>576636</v>
+        <v>576637</v>
       </c>
       <c r="F90" t="str">
         <v>4787</v>
@@ -4353,7 +4353,7 @@
         <v>https://i.ytimg.com/vi/emZriJ_0wzQ/hqdefault.jpg</v>
       </c>
       <c r="O90" t="str">
-        <v>IN</v>
+        <v>Pakistan</v>
       </c>
     </row>
     <row r="91">
@@ -4364,10 +4364,10 @@
         <v>People &amp; Blogs</v>
       </c>
       <c r="D91" t="str">
-        <v>8956194</v>
+        <v>8956681</v>
       </c>
       <c r="E91" t="str">
-        <v>623653</v>
+        <v>623672</v>
       </c>
       <c r="F91" t="str">
         <v>1492</v>
@@ -4397,7 +4397,7 @@
         <v>https://i.ytimg.com/vi/DvaVgTdKHDg/hqdefault.jpg</v>
       </c>
       <c r="O91" t="str">
-        <v>IN</v>
+        <v>Unknown</v>
       </c>
     </row>
     <row r="92">
@@ -4405,13 +4405,13 @@
         <v>What I Eat In A Day - Delhi Street Food Edition 😍 *failed* | @sosaute #shorts</v>
       </c>
       <c r="C92" t="str">
-        <v>Unknown</v>
+        <v>Howto &amp; Style</v>
       </c>
       <c r="D92" t="str">
-        <v>8809788</v>
+        <v>8810471</v>
       </c>
       <c r="E92" t="str">
-        <v>533701</v>
+        <v>533706</v>
       </c>
       <c r="F92" t="str">
         <v>1388</v>
@@ -4441,7 +4441,7 @@
         <v>https://i.ytimg.com/vi/mqQDgm2qYQo/hqdefault.jpg</v>
       </c>
       <c r="O92" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="93">
@@ -4452,10 +4452,10 @@
         <v>People &amp; Blogs</v>
       </c>
       <c r="D93" t="str">
-        <v>8772355</v>
+        <v>8772733</v>
       </c>
       <c r="E93" t="str">
-        <v>361274</v>
+        <v>361277</v>
       </c>
       <c r="F93" t="str">
         <v>534</v>
@@ -4485,7 +4485,7 @@
         <v>https://i.ytimg.com/vi/xmNBZ5IgCgc/hqdefault.jpg</v>
       </c>
       <c r="O93" t="str">
-        <v>IN</v>
+        <v>Unknown</v>
       </c>
     </row>
     <row r="94">
@@ -4496,10 +4496,10 @@
         <v>People &amp; Blogs</v>
       </c>
       <c r="D94" t="str">
-        <v>8666287</v>
+        <v>8666446</v>
       </c>
       <c r="E94" t="str">
-        <v>469443</v>
+        <v>469444</v>
       </c>
       <c r="F94" t="str">
         <v>570</v>
@@ -4529,7 +4529,7 @@
         <v>https://i.ytimg.com/vi/mZHdjR7f_CA/hqdefault.jpg</v>
       </c>
       <c r="O94" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="95">
@@ -4537,13 +4537,13 @@
         <v>Chinese🍝#food #foodie #foodvlog #minivlog #indianfood #streetfood #local #chinesefood #noodles #new</v>
       </c>
       <c r="C95" t="str">
-        <v>Unknown</v>
+        <v>Entertainment</v>
       </c>
       <c r="D95" t="str">
-        <v>8516130</v>
+        <v>8516586</v>
       </c>
       <c r="E95" t="str">
-        <v>537051</v>
+        <v>537059</v>
       </c>
       <c r="F95" t="str">
         <v>524</v>
@@ -4573,7 +4573,7 @@
         <v>https://i.ytimg.com/vi/MUKzihZjMAM/hqdefault.jpg</v>
       </c>
       <c r="O95" t="str">
-        <v>IN</v>
+        <v>Unknown</v>
       </c>
     </row>
     <row r="96">
@@ -4581,13 +4581,13 @@
         <v>Eating India’s Largest GIANT Food !! *10 Feet Dosa*</v>
       </c>
       <c r="C96" t="str">
-        <v>Unknown</v>
+        <v>Entertainment</v>
       </c>
       <c r="D96" t="str">
-        <v>8371855</v>
+        <v>8372076</v>
       </c>
       <c r="E96" t="str">
-        <v>324215</v>
+        <v>324217</v>
       </c>
       <c r="F96" t="str">
         <v>8450</v>
@@ -4617,7 +4617,7 @@
         <v>https://i.ytimg.com/vi/_KTdNqt4Fng/hqdefault.jpg</v>
       </c>
       <c r="O96" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="97">
@@ -4628,10 +4628,10 @@
         <v>People &amp; Blogs</v>
       </c>
       <c r="D97" t="str">
-        <v>8362765</v>
+        <v>8363274</v>
       </c>
       <c r="E97" t="str">
-        <v>780110</v>
+        <v>780121</v>
       </c>
       <c r="F97" t="str">
         <v>1006</v>
@@ -4661,7 +4661,7 @@
         <v>https://i.ytimg.com/vi/3UtHsVSNofg/hqdefault.jpg</v>
       </c>
       <c r="O97" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="98">
@@ -4672,10 +4672,10 @@
         <v>People &amp; Blogs</v>
       </c>
       <c r="D98" t="str">
-        <v>8381455</v>
+        <v>8382268</v>
       </c>
       <c r="E98" t="str">
-        <v>502895</v>
+        <v>502903</v>
       </c>
       <c r="F98" t="str">
         <v>650</v>
@@ -4705,7 +4705,7 @@
         <v>https://i.ytimg.com/vi/V4R5stu17Ks/hqdefault.jpg</v>
       </c>
       <c r="O98" t="str">
-        <v>IN</v>
+        <v>Unknown</v>
       </c>
     </row>
     <row r="99">
@@ -4713,13 +4713,13 @@
         <v>How to always enjoy any FOOD peacefully?😎❤️🍔| CHEFKOUDY</v>
       </c>
       <c r="C99" t="str">
-        <v>Unknown</v>
+        <v>Howto &amp; Style</v>
       </c>
       <c r="D99" t="str">
-        <v>8289338</v>
+        <v>8341582</v>
       </c>
       <c r="E99" t="str">
-        <v>323156</v>
+        <v>324753</v>
       </c>
       <c r="F99" t="str">
         <v>2045</v>
@@ -4749,7 +4749,7 @@
         <v>https://i.ytimg.com/vi/ej5piBDaD1Y/hqdefault.jpg</v>
       </c>
       <c r="O99" t="str">
-        <v>IN</v>
+        <v>United States</v>
       </c>
     </row>
     <row r="100">
@@ -4757,13 +4757,13 @@
         <v>कैसे INDIAN MUKBANGERS लोगों को मामू बनाते है | Dark Reality Of Famous Indian Mukbangers</v>
       </c>
       <c r="C100" t="str">
-        <v>Unknown</v>
+        <v>Entertainment</v>
       </c>
       <c r="D100" t="str">
-        <v>8182671</v>
+        <v>8182858</v>
       </c>
       <c r="E100" t="str">
-        <v>138607</v>
+        <v>138610</v>
       </c>
       <c r="F100" t="str">
         <v>1651</v>
@@ -4793,7 +4793,7 @@
         <v>https://i.ytimg.com/vi/AULO0mbvWcU/hqdefault.jpg</v>
       </c>
       <c r="O100" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
     <row r="101">
@@ -4804,7 +4804,7 @@
         <v>People &amp; Blogs</v>
       </c>
       <c r="D101" t="str">
-        <v>8104358</v>
+        <v>8105208</v>
       </c>
       <c r="F101" t="str">
         <v>4341</v>
@@ -4834,7 +4834,7 @@
         <v>https://i.ytimg.com/vi/LP02-Kjv8fY/hqdefault.jpg</v>
       </c>
       <c r="O101" t="str">
-        <v>IN</v>
+        <v>India</v>
       </c>
     </row>
   </sheetData>
